--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_2_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_2_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1359705.453421021</v>
+        <v>1317881.671752014</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8768687.11007558</v>
+        <v>8768687.110075578</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8375415.671967447</v>
+        <v>8375415.671967448</v>
       </c>
     </row>
     <row r="11">
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -673,13 +673,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>33.60023339142367</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -706,7 +706,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -718,10 +718,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>198.7050131246913</v>
       </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -737,19 +737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>7.746371725236233</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -758,10 +758,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -791,22 +791,22 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>128.9764887865587</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -901,22 +901,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>40.47627913313511</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -943,7 +943,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>168.1666138174382</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -992,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -1034,10 +1034,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>186.2783301735246</v>
+        <v>35.00246782997241</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1071,16 +1071,16 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>241.0142888776591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>15.30273751513505</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>18.29749587628862</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1180,7 +1180,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V8" t="n">
         <v>241.0142888776591</v>
@@ -1198,7 +1198,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X8" t="n">
-        <v>175.0426595591497</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1211,16 +1211,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1229,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -1259,22 +1259,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>88.61775520402705</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>145.4287699906872</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>149.9401395156704</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1381,16 +1381,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>414.089049841944</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I11" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>73.62980964006114</v>
       </c>
       <c r="S11" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>74.30182844096016</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.2485578939812</v>
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1460,16 +1460,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>91.68674581998047</v>
       </c>
       <c r="G12" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>59.83930139749143</v>
       </c>
       <c r="S12" t="n">
         <v>159.6212195484502</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U12" t="n">
-        <v>120.2062413692235</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1539,19 +1539,19 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>36.48436605884923</v>
+        <v>43.12240526463273</v>
       </c>
       <c r="G13" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>54.86879163620182</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1615,16 +1615,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>117.8895498199116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1654,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>73.62980964006114</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>217.7829317747374</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>177.9117880033989</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1697,16 +1697,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>136.6941370086349</v>
       </c>
       <c r="H15" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>59.83930139749143</v>
+        <v>14.83191020883741</v>
       </c>
       <c r="S15" t="n">
         <v>159.6212195484502</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U15" t="n">
-        <v>60.36693997173198</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1770,25 +1770,25 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>36.48436605884923</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.4465608509556</v>
+        <v>120.1263698699158</v>
       </c>
       <c r="H16" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>54.86879163620182</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>117.8895498199116</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>307.7941235819349</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>73.62980964006115</v>
+        <v>73.62980964006114</v>
       </c>
       <c r="S17" t="n">
         <v>181.3631617334038</v>
@@ -1900,19 +1900,19 @@
         <v>217.7829317747374</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1934,16 +1934,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>144.583018407241</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>6.456834824088095</v>
+        <v>59.83930139749143</v>
       </c>
       <c r="S18" t="n">
         <v>159.6212195484502</v>
@@ -1979,7 +1979,7 @@
         <v>197.5472709665096</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8986597023843</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>92.96858446131048</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>111.3550458383073</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>327.0451232326991</v>
       </c>
       <c r="I20" t="n">
-        <v>163.6851955497072</v>
+        <v>32.8900997420189</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,10 +2128,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>50.38767352112491</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T20" t="n">
         <v>217.7829317747374</v>
@@ -2143,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2174,13 +2174,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>6.456834824087645</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>159.6212195484502</v>
@@ -2216,7 +2216,7 @@
         <v>197.5472709665096</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8986597023843</v>
+        <v>28.62276946212341</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2247,13 +2247,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>48.88096232627796</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,19 +2289,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>101.2952820371725</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>190.3242501950981</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2374,19 +2374,19 @@
         <v>217.7829317747374</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>147.8533415117112</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>68.04005197492948</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -2408,13 +2408,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>14.83191020883713</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>136.6941370086349</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2444,13 +2444,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>59.83930139749143</v>
       </c>
       <c r="S24" t="n">
         <v>159.6212195484502</v>
       </c>
       <c r="T24" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>225.8986597023843</v>
@@ -2557,19 +2557,19 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>376.0805263004781</v>
+        <v>407.3623589073255</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>73.62980964006115</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2648,13 +2648,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,22 +2681,22 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>59.83930139749143</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T27" t="n">
         <v>197.5472709665096</v>
       </c>
       <c r="U27" t="n">
-        <v>225.8986597023843</v>
+        <v>172.5161931289803</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>108.0765134096991</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>121.1370799310458</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>207.986300191826</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2794,25 +2794,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>9.504307171473648</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>253.579401585037</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T29" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.2485578939812</v>
@@ -2888,10 +2888,10 @@
         <v>136.6941370086349</v>
       </c>
       <c r="H30" t="n">
-        <v>105.9637990594094</v>
+        <v>29.3839173639032</v>
       </c>
       <c r="I30" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2924,7 +2924,7 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>53.92880121528968</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U30" t="n">
         <v>225.8986597023843</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3006,10 +3006,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>16.60419956429995</v>
+        <v>123.3207948651966</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>379.8759895224484</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>139.0285229984735</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3094,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3119,16 +3119,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>136.6941370086349</v>
       </c>
       <c r="H33" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,16 +3155,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>14.83191020883696</v>
       </c>
       <c r="S33" t="n">
         <v>159.6212195484502</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U33" t="n">
-        <v>120.2062413692235</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3189,13 +3189,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>110.9705324835875</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>241.5840574795219</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3252,10 +3252,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3274,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>5.671653511671725</v>
       </c>
       <c r="T35" t="n">
         <v>217.7829317747374</v>
       </c>
       <c r="U35" t="n">
-        <v>241.2168450192875</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3331,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3350,22 +3350,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>136.6941370086349</v>
       </c>
       <c r="H36" t="n">
-        <v>105.9637990594094</v>
+        <v>102.4376743759843</v>
       </c>
       <c r="I36" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,13 +3392,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>59.83930139749143</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T36" t="n">
-        <v>53.92880121528968</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U36" t="n">
         <v>225.8986597023843</v>
@@ -3435,16 +3435,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>91.55289744737868</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>162.3985825025956</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>352.024878336558</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3511,13 +3511,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>414.089049841944</v>
+        <v>321.9495462687532</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>73.62980964006115</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3596,13 +3596,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>35.82205612034595</v>
       </c>
       <c r="I39" t="n">
-        <v>6.456834824088117</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>59.83930139749143</v>
       </c>
       <c r="S39" t="n">
         <v>159.6212195484502</v>
@@ -3638,7 +3638,7 @@
         <v>197.5472709665096</v>
       </c>
       <c r="U39" t="n">
-        <v>225.8986597023843</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3663,22 +3663,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>41.63075220784258</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>135.6806370499361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3742,10 +3742,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>198.5166512823616</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3754,13 +3754,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>383.3800865150216</v>
       </c>
     </row>
     <row r="42">
@@ -3830,13 +3830,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>91.68674581998047</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3875,7 +3875,7 @@
         <v>197.5472709665096</v>
       </c>
       <c r="U42" t="n">
-        <v>225.8986597023843</v>
+        <v>66.55239406957143</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3918,10 +3918,10 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>54.86879163620182</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3942,16 +3942,16 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>40.57441713704632</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>152.8143555761653</v>
       </c>
       <c r="S43" t="n">
-        <v>0.6821301477862982</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>115.9274873119628</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3960,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3988,13 +3988,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H44" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4024,13 +4024,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>12.34452501460971</v>
+        <v>73.62980964006114</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.7829317747374</v>
+        <v>45.31151646181031</v>
       </c>
       <c r="U44" t="n">
         <v>251.2485578939812</v>
@@ -4064,19 +4064,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>45.59910121103227</v>
       </c>
       <c r="G45" t="n">
         <v>136.6941370086349</v>
       </c>
       <c r="H45" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4112,10 +4112,10 @@
         <v>197.5472709665096</v>
       </c>
       <c r="U45" t="n">
-        <v>162.658844210362</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
@@ -4146,13 +4146,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.4465608509556</v>
+        <v>45.1460299494009</v>
       </c>
       <c r="H46" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>139.0783256288916</v>
@@ -4179,16 +4179,16 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>40.57441713704632</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>50.77874055800509</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>315.6850394389064</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="C2" t="n">
-        <v>72.23626279480629</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="D2" t="n">
-        <v>72.23626279480629</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="E2" t="n">
-        <v>72.23626279480629</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="F2" t="n">
-        <v>65.29076204560282</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G2" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H2" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I2" t="n">
         <v>31.35113235729608</v>
@@ -4354,28 +4354,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U2" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V2" t="n">
-        <v>802.5825927271064</v>
+        <v>753.253405673024</v>
       </c>
       <c r="W2" t="n">
-        <v>559.1338160830064</v>
+        <v>753.253405673024</v>
       </c>
       <c r="X2" t="n">
-        <v>559.1338160830064</v>
+        <v>753.253405673024</v>
       </c>
       <c r="Y2" t="n">
-        <v>315.6850394389064</v>
+        <v>509.8046290289238</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>168.215552771464</v>
+        <v>588.0815197256143</v>
       </c>
       <c r="C3" t="n">
-        <v>168.215552771464</v>
+        <v>413.6284904444873</v>
       </c>
       <c r="D3" t="n">
-        <v>19.28114311021272</v>
+        <v>264.694080783236</v>
       </c>
       <c r="E3" t="n">
-        <v>19.28114311021272</v>
+        <v>256.869462878957</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>65.60123993063803</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M3" t="n">
-        <v>304.2053859195205</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N3" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4439,22 +4439,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>533.6469426057913</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>298.4948343740486</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W3" t="n">
-        <v>168.215552771464</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X3" t="n">
-        <v>168.215552771464</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y3" t="n">
-        <v>168.215552771464</v>
+        <v>756.2968567456824</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4506,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>53.75394372784808</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="C5" t="n">
-        <v>53.75394372784808</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="D5" t="n">
-        <v>53.75394372784808</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="E5" t="n">
-        <v>53.75394372784808</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="F5" t="n">
-        <v>46.80844297864461</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="I5" t="n">
         <v>31.35113235729608</v>
@@ -4591,28 +4591,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V5" t="n">
-        <v>710.516763498309</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W5" t="n">
-        <v>467.067986854209</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X5" t="n">
-        <v>223.6192102101089</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y5" t="n">
-        <v>53.75394372784808</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="C6" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="D6" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="E6" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F6" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G6" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H6" t="n">
         <v>110.334904905842</v>
@@ -4649,10 +4649,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>248.2447175439888</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
         <v>486.8488635328713</v>
@@ -4670,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>761.8705608694022</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U6" t="n">
-        <v>533.6469426057913</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V6" t="n">
-        <v>298.4948343740486</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="W6" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="X6" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="Y6" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4743,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>290.2572196227447</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="C8" t="n">
-        <v>290.2572196227447</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="D8" t="n">
-        <v>290.2572196227447</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="E8" t="n">
-        <v>290.2572196227447</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="F8" t="n">
-        <v>46.80844297864461</v>
+        <v>65.29076204560282</v>
       </c>
       <c r="G8" t="n">
-        <v>31.35113235729608</v>
+        <v>49.83345142425428</v>
       </c>
       <c r="H8" t="n">
-        <v>31.35113235729608</v>
+        <v>49.83345142425428</v>
       </c>
       <c r="I8" t="n">
         <v>31.35113235729608</v>
@@ -4828,28 +4828,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U8" t="n">
-        <v>953.9655401424092</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="V8" t="n">
-        <v>710.516763498309</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="W8" t="n">
-        <v>467.067986854209</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="X8" t="n">
-        <v>290.2572196227447</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="Y8" t="n">
-        <v>290.2572196227447</v>
+        <v>72.23626279480629</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>110.334904905842</v>
+        <v>706.3289344460964</v>
       </c>
       <c r="C9" t="n">
-        <v>110.334904905842</v>
+        <v>531.8759051649694</v>
       </c>
       <c r="D9" t="n">
-        <v>110.334904905842</v>
+        <v>382.9414955037181</v>
       </c>
       <c r="E9" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F9" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G9" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H9" t="n">
         <v>110.334904905842</v>
@@ -4886,13 +4886,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>383.2428491569326</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
         <v>542.809531908403</v>
@@ -4907,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>874.5442714661644</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>874.5442714661644</v>
       </c>
       <c r="T9" t="n">
-        <v>817.1594080452955</v>
+        <v>874.5442714661644</v>
       </c>
       <c r="U9" t="n">
-        <v>588.9357897816847</v>
+        <v>874.5442714661644</v>
       </c>
       <c r="V9" t="n">
-        <v>353.783681549942</v>
+        <v>874.5442714661644</v>
       </c>
       <c r="W9" t="n">
-        <v>110.334904905842</v>
+        <v>874.5442714661644</v>
       </c>
       <c r="X9" t="n">
-        <v>110.334904905842</v>
+        <v>874.5442714661644</v>
       </c>
       <c r="Y9" t="n">
-        <v>110.334904905842</v>
+        <v>874.5442714661644</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4995,19 +4995,19 @@
         <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1427.279502709952</v>
+        <v>1332.758312262428</v>
       </c>
       <c r="C11" t="n">
-        <v>1427.279502709952</v>
+        <v>1181.303625882962</v>
       </c>
       <c r="D11" t="n">
-        <v>1427.279502709952</v>
+        <v>1181.303625882962</v>
       </c>
       <c r="E11" t="n">
-        <v>1041.491250111708</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="F11" t="n">
-        <v>630.5053453221001</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="G11" t="n">
-        <v>212.2335778049849</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H11" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I11" t="n">
         <v>46.89499644164432</v>
@@ -5068,25 +5068,25 @@
         <v>2270.376276991245</v>
       </c>
       <c r="S11" t="n">
-        <v>2087.181164129221</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="T11" t="n">
-        <v>2012.128812168655</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="U11" t="n">
-        <v>1758.342390053523</v>
+        <v>2016.589854876112</v>
       </c>
       <c r="V11" t="n">
-        <v>1427.279502709952</v>
+        <v>1685.526967532542</v>
       </c>
       <c r="W11" t="n">
-        <v>1427.279502709952</v>
+        <v>1332.758312262428</v>
       </c>
       <c r="X11" t="n">
-        <v>1427.279502709952</v>
+        <v>1332.758312262428</v>
       </c>
       <c r="Y11" t="n">
-        <v>1427.279502709952</v>
+        <v>1332.758312262428</v>
       </c>
     </row>
     <row r="12">
@@ -5096,46 +5096,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.8792202047736</v>
+        <v>622.1327649551149</v>
       </c>
       <c r="C12" t="n">
-        <v>814.4261909236466</v>
+        <v>447.6797356739879</v>
       </c>
       <c r="D12" t="n">
-        <v>665.4917812623953</v>
+        <v>298.7453260127367</v>
       </c>
       <c r="E12" t="n">
-        <v>506.2543262569397</v>
+        <v>139.5078710072812</v>
       </c>
       <c r="F12" t="n">
-        <v>359.7197682838247</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G12" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H12" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I12" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J12" t="n">
-        <v>106.8945330050502</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K12" t="n">
-        <v>336.0641406922996</v>
+        <v>273.1268607498445</v>
       </c>
       <c r="L12" t="n">
-        <v>705.6153558007834</v>
+        <v>642.6780758583284</v>
       </c>
       <c r="M12" t="n">
-        <v>1188.843414867958</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.568096156131</v>
+        <v>1637.630816213676</v>
       </c>
       <c r="O12" t="n">
-        <v>2102.280527752458</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P12" t="n">
         <v>2344.749822082216</v>
@@ -5144,28 +5144,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R12" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S12" t="n">
-        <v>2183.516266982771</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T12" t="n">
-        <v>2183.516266982771</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U12" t="n">
-        <v>2062.095821155272</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.94371292353</v>
+        <v>1460.197257673871</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.706356195328</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.854855989795</v>
+        <v>998.1084007401369</v>
       </c>
       <c r="Y12" t="n">
-        <v>1157.094557224842</v>
+        <v>790.348101975183</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>607.7685734363101</v>
+        <v>90.45298155743495</v>
       </c>
       <c r="C13" t="n">
-        <v>607.7685734363101</v>
+        <v>90.45298155743495</v>
       </c>
       <c r="D13" t="n">
-        <v>607.7685734363101</v>
+        <v>90.45298155743495</v>
       </c>
       <c r="E13" t="n">
-        <v>607.7685734363101</v>
+        <v>90.45298155743495</v>
       </c>
       <c r="F13" t="n">
-        <v>570.9156784273715</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G13" t="n">
-        <v>401.7777381738809</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H13" t="n">
-        <v>242.8011754972942</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I13" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J13" t="n">
         <v>46.89499644164432</v>
@@ -5229,22 +5229,22 @@
         <v>607.7685734363101</v>
       </c>
       <c r="T13" t="n">
-        <v>607.7685734363101</v>
+        <v>379.8701515943956</v>
       </c>
       <c r="U13" t="n">
-        <v>607.7685734363101</v>
+        <v>379.8701515943956</v>
       </c>
       <c r="V13" t="n">
-        <v>607.7685734363101</v>
+        <v>379.8701515943956</v>
       </c>
       <c r="W13" t="n">
-        <v>607.7685734363101</v>
+        <v>90.45298155743495</v>
       </c>
       <c r="X13" t="n">
-        <v>607.7685734363101</v>
+        <v>90.45298155743495</v>
       </c>
       <c r="Y13" t="n">
-        <v>607.7685734363101</v>
+        <v>90.45298155743495</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>165.9753497950903</v>
+        <v>1592.28953067257</v>
       </c>
       <c r="C14" t="n">
-        <v>165.9753497950903</v>
+        <v>1592.28953067257</v>
       </c>
       <c r="D14" t="n">
-        <v>165.9753497950903</v>
+        <v>1592.28953067257</v>
       </c>
       <c r="E14" t="n">
-        <v>165.9753497950903</v>
+        <v>1206.501278074326</v>
       </c>
       <c r="F14" t="n">
-        <v>46.89499644164432</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="G14" t="n">
-        <v>46.89499644164432</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H14" t="n">
         <v>46.89499644164432</v>
@@ -5302,28 +5302,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R14" t="n">
-        <v>2270.376276991245</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S14" t="n">
-        <v>2087.181164129221</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T14" t="n">
-        <v>1867.198404760799</v>
+        <v>2124.767062713794</v>
       </c>
       <c r="U14" t="n">
-        <v>1613.411982645667</v>
+        <v>2124.767062713794</v>
       </c>
       <c r="V14" t="n">
-        <v>1282.349095302096</v>
+        <v>1945.058185942684</v>
       </c>
       <c r="W14" t="n">
-        <v>929.5804400319819</v>
+        <v>1592.28953067257</v>
       </c>
       <c r="X14" t="n">
-        <v>556.1146817709021</v>
+        <v>1592.28953067257</v>
       </c>
       <c r="Y14" t="n">
-        <v>165.9753497950903</v>
+        <v>1592.28953067257</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.8792202047736</v>
+        <v>667.5947762567861</v>
       </c>
       <c r="C15" t="n">
-        <v>814.4261909236466</v>
+        <v>493.141746975659</v>
       </c>
       <c r="D15" t="n">
-        <v>665.4917812623953</v>
+        <v>344.2073373144078</v>
       </c>
       <c r="E15" t="n">
-        <v>506.2543262569397</v>
+        <v>184.9698823089523</v>
       </c>
       <c r="F15" t="n">
-        <v>359.7197682838247</v>
+        <v>184.9698823089523</v>
       </c>
       <c r="G15" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H15" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I15" t="n">
         <v>46.89499644164432</v>
@@ -5360,49 +5360,49 @@
         <v>106.8945330050502</v>
       </c>
       <c r="K15" t="n">
-        <v>121.6684232076318</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L15" t="n">
-        <v>491.2196383161157</v>
+        <v>705.6153558007834</v>
       </c>
       <c r="M15" t="n">
-        <v>974.44769738329</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N15" t="n">
-        <v>1486.172378671464</v>
+        <v>1700.568096156131</v>
       </c>
       <c r="O15" t="n">
-        <v>1887.88481026779</v>
+        <v>2102.280527752458</v>
       </c>
       <c r="P15" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q15" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R15" t="n">
-        <v>2284.306083296871</v>
+        <v>2329.768094598542</v>
       </c>
       <c r="S15" t="n">
-        <v>2123.072528197426</v>
+        <v>2168.534539499097</v>
       </c>
       <c r="T15" t="n">
-        <v>2123.072528197426</v>
+        <v>1968.991841553128</v>
       </c>
       <c r="U15" t="n">
-        <v>2062.095821155272</v>
+        <v>1740.811377207285</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.94371292353</v>
+        <v>1505.659268975542</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.706356195328</v>
+        <v>1251.421912247341</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.854855989795</v>
+        <v>1043.570412041808</v>
       </c>
       <c r="Y15" t="n">
-        <v>1157.094557224842</v>
+        <v>835.8101132768541</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>607.7685734363101</v>
+        <v>318.3514033993495</v>
       </c>
       <c r="C16" t="n">
-        <v>607.7685734363101</v>
+        <v>318.3514033993495</v>
       </c>
       <c r="D16" t="n">
-        <v>607.7685734363101</v>
+        <v>168.2347639870138</v>
       </c>
       <c r="E16" t="n">
-        <v>607.7685734363101</v>
+        <v>168.2347639870138</v>
       </c>
       <c r="F16" t="n">
-        <v>570.9156784273715</v>
+        <v>168.2347639870138</v>
       </c>
       <c r="G16" t="n">
-        <v>401.7777381738809</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H16" t="n">
-        <v>242.8011754972942</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I16" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J16" t="n">
         <v>46.89499644164432</v>
@@ -5475,13 +5475,13 @@
         <v>607.7685734363101</v>
       </c>
       <c r="W16" t="n">
-        <v>607.7685734363101</v>
+        <v>318.3514033993495</v>
       </c>
       <c r="X16" t="n">
-        <v>607.7685734363101</v>
+        <v>318.3514033993495</v>
       </c>
       <c r="Y16" t="n">
-        <v>607.7685734363101</v>
+        <v>318.3514033993495</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>46.89499644164432</v>
+        <v>776.069919092027</v>
       </c>
       <c r="C17" t="n">
-        <v>46.89499644164432</v>
+        <v>776.069919092027</v>
       </c>
       <c r="D17" t="n">
-        <v>46.89499644164432</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="E17" t="n">
-        <v>46.89499644164432</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="F17" t="n">
-        <v>46.89499644164432</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="G17" t="n">
         <v>46.89499644164432</v>
@@ -5515,10 +5515,10 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J17" t="n">
-        <v>137.0453218915532</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K17" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L17" t="n">
         <v>762.5916738244548</v>
@@ -5530,7 +5530,7 @@
         <v>1610.799342072556</v>
       </c>
       <c r="O17" t="n">
-        <v>1962.442083972113</v>
+        <v>1962.442083972112</v>
       </c>
       <c r="P17" t="n">
         <v>2224.886645733486</v>
@@ -5548,19 +5548,19 @@
         <v>1867.198404760799</v>
       </c>
       <c r="U17" t="n">
-        <v>1613.411982645667</v>
+        <v>1867.198404760799</v>
       </c>
       <c r="V17" t="n">
-        <v>1282.349095302096</v>
+        <v>1536.135517417229</v>
       </c>
       <c r="W17" t="n">
-        <v>929.5804400319819</v>
+        <v>1536.135517417229</v>
       </c>
       <c r="X17" t="n">
-        <v>556.1146817709021</v>
+        <v>1162.669759156149</v>
       </c>
       <c r="Y17" t="n">
-        <v>165.9753497950903</v>
+        <v>1162.669759156149</v>
       </c>
     </row>
     <row r="18">
@@ -5570,40 +5570,40 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>676.0544483625931</v>
+        <v>850.3132293009576</v>
       </c>
       <c r="C18" t="n">
-        <v>501.6014190814661</v>
+        <v>675.8602000198306</v>
       </c>
       <c r="D18" t="n">
-        <v>352.6670094202149</v>
+        <v>526.9257903585793</v>
       </c>
       <c r="E18" t="n">
-        <v>193.4295544147593</v>
+        <v>367.6883353531238</v>
       </c>
       <c r="F18" t="n">
-        <v>46.89499644164432</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="G18" t="n">
-        <v>46.89499644164432</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H18" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I18" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J18" t="n">
-        <v>106.8945330050502</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K18" t="n">
-        <v>336.0641406922996</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L18" t="n">
-        <v>705.6153558007834</v>
+        <v>645.6158192373775</v>
       </c>
       <c r="M18" t="n">
-        <v>1188.843414867958</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N18" t="n">
         <v>1637.630816213676</v>
@@ -5618,28 +5618,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R18" t="n">
-        <v>2338.227766704349</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S18" t="n">
-        <v>2176.994211604904</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T18" t="n">
-        <v>1977.451513658935</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U18" t="n">
-        <v>1749.271049313092</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="V18" t="n">
-        <v>1514.118941081349</v>
+        <v>1688.377722019714</v>
       </c>
       <c r="W18" t="n">
-        <v>1259.881584353148</v>
+        <v>1434.140365291512</v>
       </c>
       <c r="X18" t="n">
-        <v>1052.030084147615</v>
+        <v>1226.28886508598</v>
       </c>
       <c r="Y18" t="n">
-        <v>844.2697853826612</v>
+        <v>1018.528566321026</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2250.842161010185</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="C19" t="n">
-        <v>2081.905978082278</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="D19" t="n">
-        <v>1931.789338669942</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="E19" t="n">
-        <v>1783.876245087549</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="F19" t="n">
-        <v>1783.876245087549</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="G19" t="n">
-        <v>1783.876245087549</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="H19" t="n">
-        <v>1783.876245087549</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I19" t="n">
-        <v>1783.876245087549</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J19" t="n">
-        <v>1783.876245087549</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K19" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702974</v>
       </c>
       <c r="L19" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200977</v>
       </c>
       <c r="M19" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362074</v>
       </c>
       <c r="N19" t="n">
-        <v>2181.73670676875</v>
+        <v>444.7554581228447</v>
       </c>
       <c r="O19" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496714</v>
       </c>
       <c r="P19" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="Q19" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="R19" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="S19" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="T19" t="n">
-        <v>2344.749822082216</v>
+        <v>495.2887291551917</v>
       </c>
       <c r="U19" t="n">
-        <v>2344.749822082216</v>
+        <v>495.2887291551917</v>
       </c>
       <c r="V19" t="n">
-        <v>2344.749822082216</v>
+        <v>495.2887291551917</v>
       </c>
       <c r="W19" t="n">
-        <v>2344.749822082216</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="X19" t="n">
-        <v>2344.749822082216</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="Y19" t="n">
-        <v>2344.749822082216</v>
+        <v>205.8715591182311</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2073.870422793465</v>
+        <v>828.7376962564545</v>
       </c>
       <c r="C20" t="n">
-        <v>1704.907905853054</v>
+        <v>828.7376962564545</v>
       </c>
       <c r="D20" t="n">
-        <v>1346.642207246303</v>
+        <v>828.7376962564545</v>
       </c>
       <c r="E20" t="n">
-        <v>960.8539546480588</v>
+        <v>828.7376962564545</v>
       </c>
       <c r="F20" t="n">
-        <v>960.8539546480588</v>
+        <v>828.7376962564545</v>
       </c>
       <c r="G20" t="n">
-        <v>542.5821871309436</v>
+        <v>410.4659287393393</v>
       </c>
       <c r="H20" t="n">
-        <v>212.2335778049849</v>
+        <v>80.11731941338059</v>
       </c>
       <c r="I20" t="n">
-        <v>46.89499644164431</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J20" t="n">
         <v>137.0453218915535</v>
       </c>
       <c r="K20" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L20" t="n">
-        <v>762.5916738244548</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M20" t="n">
         <v>1190.549107376118</v>
       </c>
       <c r="N20" t="n">
-        <v>1610.799342072556</v>
+        <v>1610.799342072557</v>
       </c>
       <c r="O20" t="n">
-        <v>1962.442083972112</v>
+        <v>1962.442083972113</v>
       </c>
       <c r="P20" t="n">
         <v>2224.886645733486</v>
       </c>
       <c r="Q20" t="n">
-        <v>2344.749822082215</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R20" t="n">
-        <v>2293.853182161887</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S20" t="n">
-        <v>2293.853182161887</v>
+        <v>2161.554709220192</v>
       </c>
       <c r="T20" t="n">
-        <v>2073.870422793465</v>
+        <v>1941.57194985177</v>
       </c>
       <c r="U20" t="n">
-        <v>2073.870422793465</v>
+        <v>1941.57194985177</v>
       </c>
       <c r="V20" t="n">
-        <v>2073.870422793465</v>
+        <v>1941.57194985177</v>
       </c>
       <c r="W20" t="n">
-        <v>2073.870422793465</v>
+        <v>1588.803294581656</v>
       </c>
       <c r="X20" t="n">
-        <v>2073.870422793465</v>
+        <v>1215.337536320576</v>
       </c>
       <c r="Y20" t="n">
-        <v>2073.870422793465</v>
+        <v>1215.337536320576</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>676.0544483625931</v>
+        <v>881.8450797407235</v>
       </c>
       <c r="C21" t="n">
-        <v>501.6014190814661</v>
+        <v>707.3920504595965</v>
       </c>
       <c r="D21" t="n">
-        <v>352.6670094202149</v>
+        <v>558.4576407983452</v>
       </c>
       <c r="E21" t="n">
-        <v>193.4295544147593</v>
+        <v>399.2201857928898</v>
       </c>
       <c r="F21" t="n">
-        <v>46.89499644164431</v>
+        <v>252.6856278197748</v>
       </c>
       <c r="G21" t="n">
-        <v>46.89499644164431</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="H21" t="n">
-        <v>46.89499644164431</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I21" t="n">
-        <v>46.89499644164431</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J21" t="n">
-        <v>46.89499644164431</v>
+        <v>106.8945330050502</v>
       </c>
       <c r="K21" t="n">
-        <v>273.1268607498445</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L21" t="n">
-        <v>642.6780758583283</v>
+        <v>705.6153558007834</v>
       </c>
       <c r="M21" t="n">
-        <v>1125.906134925503</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N21" t="n">
-        <v>1637.630816213676</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O21" t="n">
-        <v>2039.343247810002</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P21" t="n">
-        <v>2344.749822082215</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q21" t="n">
-        <v>2344.749822082215</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R21" t="n">
-        <v>2338.227766704349</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S21" t="n">
-        <v>2176.994211604904</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T21" t="n">
-        <v>1977.451513658935</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="U21" t="n">
-        <v>1749.271049313092</v>
+        <v>1955.061680691222</v>
       </c>
       <c r="V21" t="n">
-        <v>1514.118941081349</v>
+        <v>1719.90957245948</v>
       </c>
       <c r="W21" t="n">
-        <v>1259.881584353148</v>
+        <v>1465.672215731278</v>
       </c>
       <c r="X21" t="n">
-        <v>1052.030084147615</v>
+        <v>1257.820715525745</v>
       </c>
       <c r="Y21" t="n">
-        <v>844.2697853826612</v>
+        <v>1050.060416760791</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>391.0727469424306</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="C22" t="n">
-        <v>391.0727469424306</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="D22" t="n">
-        <v>391.0727469424306</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="E22" t="n">
-        <v>243.1596533600375</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="F22" t="n">
-        <v>96.2697058621271</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="G22" t="n">
-        <v>46.89499644164431</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H22" t="n">
-        <v>46.89499644164431</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I22" t="n">
-        <v>46.89499644164431</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J22" t="n">
-        <v>46.89499644164431</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K22" t="n">
-        <v>87.46721626702973</v>
+        <v>87.46721626702974</v>
       </c>
       <c r="L22" t="n">
         <v>194.9121237200977</v>
       </c>
       <c r="M22" t="n">
-        <v>318.5868368362073</v>
+        <v>318.5868368362074</v>
       </c>
       <c r="N22" t="n">
-        <v>444.7554581228446</v>
+        <v>444.7554581228447</v>
       </c>
       <c r="O22" t="n">
-        <v>545.2763053496712</v>
+        <v>545.2763053496714</v>
       </c>
       <c r="P22" t="n">
-        <v>607.7685734363099</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="Q22" t="n">
-        <v>607.7685734363099</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="R22" t="n">
-        <v>607.7685734363099</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="S22" t="n">
-        <v>391.0727469424306</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="T22" t="n">
-        <v>391.0727469424306</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="U22" t="n">
-        <v>391.0727469424306</v>
+        <v>505.4501067320955</v>
       </c>
       <c r="V22" t="n">
-        <v>391.0727469424306</v>
+        <v>505.4501067320955</v>
       </c>
       <c r="W22" t="n">
-        <v>391.0727469424306</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="X22" t="n">
-        <v>391.0727469424306</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="Y22" t="n">
-        <v>391.0727469424306</v>
+        <v>216.0329366951349</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>630.5053453221001</v>
+        <v>1008.393317206788</v>
       </c>
       <c r="C23" t="n">
-        <v>630.5053453221001</v>
+        <v>816.1465998380024</v>
       </c>
       <c r="D23" t="n">
-        <v>630.5053453221001</v>
+        <v>457.8809012312519</v>
       </c>
       <c r="E23" t="n">
-        <v>630.5053453221001</v>
+        <v>457.8809012312519</v>
       </c>
       <c r="F23" t="n">
-        <v>630.5053453221001</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G23" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H23" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I23" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J23" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915532</v>
       </c>
       <c r="K23" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275673</v>
       </c>
       <c r="L23" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244546</v>
       </c>
       <c r="M23" t="n">
         <v>1190.549107376118</v>
@@ -6022,19 +6022,19 @@
         <v>2124.767062713794</v>
       </c>
       <c r="U23" t="n">
-        <v>1870.980640598661</v>
+        <v>2124.767062713794</v>
       </c>
       <c r="V23" t="n">
-        <v>1539.917753255091</v>
+        <v>2124.767062713794</v>
       </c>
       <c r="W23" t="n">
-        <v>1390.570943647302</v>
+        <v>1771.99840744368</v>
       </c>
       <c r="X23" t="n">
-        <v>1017.105185386222</v>
+        <v>1398.5326491826</v>
       </c>
       <c r="Y23" t="n">
-        <v>1017.105185386222</v>
+        <v>1008.393317206788</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>682.5765037404599</v>
+        <v>921.1634746939509</v>
       </c>
       <c r="C24" t="n">
-        <v>508.1234744593329</v>
+        <v>746.7104454128239</v>
       </c>
       <c r="D24" t="n">
-        <v>359.1890647980816</v>
+        <v>597.7760357515726</v>
       </c>
       <c r="E24" t="n">
-        <v>199.9516097926261</v>
+        <v>438.5385807461172</v>
       </c>
       <c r="F24" t="n">
-        <v>184.9698823089523</v>
+        <v>292.0040227730022</v>
       </c>
       <c r="G24" t="n">
-        <v>46.89499644164432</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H24" t="n">
         <v>46.89499644164432</v>
@@ -6071,49 +6071,49 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K24" t="n">
-        <v>121.668423207632</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L24" t="n">
-        <v>491.2196383161158</v>
+        <v>642.6780758583287</v>
       </c>
       <c r="M24" t="n">
-        <v>974.4476973832901</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N24" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213676</v>
       </c>
       <c r="O24" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P24" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q24" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R24" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S24" t="n">
-        <v>2183.516266982771</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T24" t="n">
-        <v>1983.973569036802</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="U24" t="n">
-        <v>1755.793104690959</v>
+        <v>1894.892063851583</v>
       </c>
       <c r="V24" t="n">
-        <v>1520.640996459216</v>
+        <v>1659.739955619841</v>
       </c>
       <c r="W24" t="n">
-        <v>1266.403639731015</v>
+        <v>1405.502598891639</v>
       </c>
       <c r="X24" t="n">
-        <v>1058.552139525482</v>
+        <v>1197.651098686106</v>
       </c>
       <c r="Y24" t="n">
-        <v>850.791840760528</v>
+        <v>989.8907999211524</v>
       </c>
     </row>
     <row r="25">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1154.002531484239</v>
+        <v>1613.411982645666</v>
       </c>
       <c r="C26" t="n">
-        <v>785.0400145438273</v>
+        <v>1613.411982645666</v>
       </c>
       <c r="D26" t="n">
-        <v>426.7743159370768</v>
+        <v>1255.146284038916</v>
       </c>
       <c r="E26" t="n">
-        <v>426.7743159370768</v>
+        <v>869.3580314406715</v>
       </c>
       <c r="F26" t="n">
-        <v>426.7743159370768</v>
+        <v>458.372126651064</v>
       </c>
       <c r="G26" t="n">
         <v>46.89499644164431</v>
@@ -6253,25 +6253,25 @@
         <v>2270.376276991245</v>
       </c>
       <c r="S26" t="n">
-        <v>2270.376276991245</v>
+        <v>2087.181164129221</v>
       </c>
       <c r="T26" t="n">
-        <v>2270.376276991245</v>
+        <v>1867.198404760799</v>
       </c>
       <c r="U26" t="n">
-        <v>2270.376276991245</v>
+        <v>1613.411982645666</v>
       </c>
       <c r="V26" t="n">
-        <v>2270.376276991245</v>
+        <v>1613.411982645666</v>
       </c>
       <c r="W26" t="n">
-        <v>1917.60762172113</v>
+        <v>1613.411982645666</v>
       </c>
       <c r="X26" t="n">
-        <v>1544.141863460051</v>
+        <v>1613.411982645666</v>
       </c>
       <c r="Y26" t="n">
-        <v>1154.002531484239</v>
+        <v>1613.411982645666</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.8792202047736</v>
+        <v>676.0544483625931</v>
       </c>
       <c r="C27" t="n">
-        <v>814.4261909236466</v>
+        <v>501.6014190814661</v>
       </c>
       <c r="D27" t="n">
-        <v>665.4917812623953</v>
+        <v>352.6670094202149</v>
       </c>
       <c r="E27" t="n">
-        <v>506.2543262569397</v>
+        <v>193.4295544147593</v>
       </c>
       <c r="F27" t="n">
-        <v>359.7197682838247</v>
+        <v>46.89499644164431</v>
       </c>
       <c r="G27" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164431</v>
       </c>
       <c r="H27" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164431</v>
       </c>
       <c r="I27" t="n">
         <v>46.89499644164431</v>
@@ -6308,13 +6308,13 @@
         <v>106.8945330050502</v>
       </c>
       <c r="K27" t="n">
-        <v>273.1268607498445</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L27" t="n">
-        <v>642.6780758583283</v>
+        <v>705.6153558007834</v>
       </c>
       <c r="M27" t="n">
-        <v>1125.906134925503</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N27" t="n">
         <v>1637.630816213676</v>
@@ -6329,28 +6329,28 @@
         <v>2344.749822082215</v>
       </c>
       <c r="R27" t="n">
-        <v>2344.749822082215</v>
+        <v>2284.30608329687</v>
       </c>
       <c r="S27" t="n">
-        <v>2344.749822082215</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T27" t="n">
-        <v>2145.207124136246</v>
+        <v>1923.529830251456</v>
       </c>
       <c r="U27" t="n">
-        <v>1917.026659790403</v>
+        <v>1749.271049313092</v>
       </c>
       <c r="V27" t="n">
-        <v>1681.874551558661</v>
+        <v>1514.118941081349</v>
       </c>
       <c r="W27" t="n">
-        <v>1572.706356195328</v>
+        <v>1259.881584353148</v>
       </c>
       <c r="X27" t="n">
-        <v>1364.854855989795</v>
+        <v>1052.030084147615</v>
       </c>
       <c r="Y27" t="n">
-        <v>1157.094557224842</v>
+        <v>844.2697853826612</v>
       </c>
     </row>
     <row r="28">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>216.0329366951349</v>
+        <v>607.7685734363099</v>
       </c>
       <c r="C28" t="n">
-        <v>216.0329366951349</v>
+        <v>607.7685734363099</v>
       </c>
       <c r="D28" t="n">
-        <v>216.0329366951349</v>
+        <v>457.6519340239741</v>
       </c>
       <c r="E28" t="n">
-        <v>216.0329366951349</v>
+        <v>309.738840441581</v>
       </c>
       <c r="F28" t="n">
-        <v>216.0329366951349</v>
+        <v>309.738840441581</v>
       </c>
       <c r="G28" t="n">
-        <v>46.89499644164431</v>
+        <v>309.738840441581</v>
       </c>
       <c r="H28" t="n">
-        <v>46.89499644164431</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="I28" t="n">
         <v>46.89499644164431</v>
@@ -6414,22 +6414,22 @@
         <v>607.7685734363099</v>
       </c>
       <c r="T28" t="n">
-        <v>397.6814015253746</v>
+        <v>607.7685734363099</v>
       </c>
       <c r="U28" t="n">
-        <v>397.6814015253746</v>
+        <v>607.7685734363099</v>
       </c>
       <c r="V28" t="n">
-        <v>397.6814015253746</v>
+        <v>607.7685734363099</v>
       </c>
       <c r="W28" t="n">
-        <v>397.6814015253746</v>
+        <v>607.7685734363099</v>
       </c>
       <c r="X28" t="n">
-        <v>397.6814015253746</v>
+        <v>607.7685734363099</v>
       </c>
       <c r="Y28" t="n">
-        <v>397.6814015253746</v>
+        <v>607.7685734363099</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>800.5492579208549</v>
+        <v>837.3369044272522</v>
       </c>
       <c r="C29" t="n">
-        <v>800.5492579208549</v>
+        <v>468.3743874868405</v>
       </c>
       <c r="D29" t="n">
-        <v>442.2835593141044</v>
+        <v>468.3743874868405</v>
       </c>
       <c r="E29" t="n">
-        <v>56.49530671586012</v>
+        <v>468.3743874868405</v>
       </c>
       <c r="F29" t="n">
-        <v>46.89499644164432</v>
+        <v>468.3743874868405</v>
       </c>
       <c r="G29" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="H29" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I29" t="n">
-        <v>46.89499644164432</v>
+        <v>46.89499644164431</v>
       </c>
       <c r="J29" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K29" t="n">
         <v>392.9020949275675</v>
       </c>
       <c r="L29" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244548</v>
       </c>
       <c r="M29" t="n">
         <v>1190.549107376118</v>
@@ -6484,31 +6484,31 @@
         <v>2224.886645733486</v>
       </c>
       <c r="Q29" t="n">
-        <v>2344.749822082216</v>
+        <v>2344.749822082215</v>
       </c>
       <c r="R29" t="n">
-        <v>2344.749822082216</v>
+        <v>2344.749822082215</v>
       </c>
       <c r="S29" t="n">
-        <v>2344.749822082216</v>
+        <v>2161.554709220191</v>
       </c>
       <c r="T29" t="n">
-        <v>2124.767062713794</v>
+        <v>2161.554709220191</v>
       </c>
       <c r="U29" t="n">
-        <v>1870.980640598661</v>
+        <v>1907.768287105059</v>
       </c>
       <c r="V29" t="n">
-        <v>1539.917753255091</v>
+        <v>1576.705399761488</v>
       </c>
       <c r="W29" t="n">
-        <v>1187.149097984977</v>
+        <v>1223.936744491374</v>
       </c>
       <c r="X29" t="n">
-        <v>1187.149097984977</v>
+        <v>1223.936744491374</v>
       </c>
       <c r="Y29" t="n">
-        <v>1187.149097984977</v>
+        <v>1223.936744491374</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.8792202047736</v>
+        <v>843.8100588399043</v>
       </c>
       <c r="C30" t="n">
-        <v>814.4261909236466</v>
+        <v>669.3570295587773</v>
       </c>
       <c r="D30" t="n">
-        <v>665.4917812623953</v>
+        <v>520.422619897526</v>
       </c>
       <c r="E30" t="n">
-        <v>506.2543262569397</v>
+        <v>361.1851648920705</v>
       </c>
       <c r="F30" t="n">
-        <v>359.7197682838247</v>
+        <v>214.6506069189555</v>
       </c>
       <c r="G30" t="n">
-        <v>221.6448824165167</v>
+        <v>76.57572105164755</v>
       </c>
       <c r="H30" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164431</v>
       </c>
       <c r="I30" t="n">
-        <v>46.89499644164432</v>
+        <v>46.89499644164431</v>
       </c>
       <c r="J30" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050502</v>
       </c>
       <c r="K30" t="n">
-        <v>273.1268607498449</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L30" t="n">
-        <v>642.6780758583287</v>
+        <v>705.6153558007834</v>
       </c>
       <c r="M30" t="n">
-        <v>1125.906134925503</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N30" t="n">
-        <v>1637.630816213676</v>
+        <v>1700.568096156131</v>
       </c>
       <c r="O30" t="n">
-        <v>2039.343247810003</v>
+        <v>2039.343247810002</v>
       </c>
       <c r="P30" t="n">
-        <v>2344.749822082216</v>
+        <v>2344.749822082215</v>
       </c>
       <c r="Q30" t="n">
-        <v>2344.749822082216</v>
+        <v>2344.749822082215</v>
       </c>
       <c r="R30" t="n">
-        <v>2344.749822082216</v>
+        <v>2344.749822082215</v>
       </c>
       <c r="S30" t="n">
-        <v>2344.749822082216</v>
+        <v>2344.749822082215</v>
       </c>
       <c r="T30" t="n">
-        <v>2290.276285501115</v>
+        <v>2145.207124136246</v>
       </c>
       <c r="U30" t="n">
-        <v>2062.095821155272</v>
+        <v>1917.026659790403</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.94371292353</v>
+        <v>1681.874551558661</v>
       </c>
       <c r="W30" t="n">
-        <v>1572.706356195328</v>
+        <v>1427.637194830459</v>
       </c>
       <c r="X30" t="n">
-        <v>1364.854855989795</v>
+        <v>1219.785694624926</v>
       </c>
       <c r="Y30" t="n">
-        <v>1157.094557224842</v>
+        <v>1012.025395859972</v>
       </c>
     </row>
     <row r="31">
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.89499644164432</v>
+        <v>193.7849439395547</v>
       </c>
       <c r="C31" t="n">
-        <v>46.89499644164432</v>
+        <v>193.7849439395547</v>
       </c>
       <c r="D31" t="n">
-        <v>46.89499644164432</v>
+        <v>193.7849439395547</v>
       </c>
       <c r="E31" t="n">
-        <v>46.89499644164432</v>
+        <v>193.7849439395547</v>
       </c>
       <c r="F31" t="n">
-        <v>46.89499644164432</v>
+        <v>46.89499644164431</v>
       </c>
       <c r="G31" t="n">
-        <v>46.89499644164432</v>
+        <v>46.89499644164431</v>
       </c>
       <c r="H31" t="n">
-        <v>46.89499644164432</v>
+        <v>46.89499644164431</v>
       </c>
       <c r="I31" t="n">
-        <v>46.89499644164432</v>
+        <v>46.89499644164431</v>
       </c>
       <c r="J31" t="n">
-        <v>46.89499644164432</v>
+        <v>46.89499644164431</v>
       </c>
       <c r="K31" t="n">
         <v>87.46721626702973</v>
@@ -6654,19 +6654,19 @@
         <v>607.7685734363099</v>
       </c>
       <c r="U31" t="n">
-        <v>590.9966546844918</v>
+        <v>483.2021139765153</v>
       </c>
       <c r="V31" t="n">
-        <v>336.3121664786049</v>
+        <v>483.2021139765153</v>
       </c>
       <c r="W31" t="n">
-        <v>46.89499644164432</v>
+        <v>193.7849439395547</v>
       </c>
       <c r="X31" t="n">
-        <v>46.89499644164432</v>
+        <v>193.7849439395547</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.89499644164432</v>
+        <v>193.7849439395547</v>
       </c>
     </row>
     <row r="32">
@@ -6676,31 +6676,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1570.897369376658</v>
+        <v>974.5621324127808</v>
       </c>
       <c r="C32" t="n">
-        <v>1201.934852436247</v>
+        <v>605.5996154723691</v>
       </c>
       <c r="D32" t="n">
-        <v>843.6691538294961</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="E32" t="n">
-        <v>457.8809012312519</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="F32" t="n">
-        <v>46.89499644164432</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="G32" t="n">
-        <v>46.89499644164432</v>
+        <v>46.89499644164431</v>
       </c>
       <c r="H32" t="n">
-        <v>46.89499644164432</v>
+        <v>46.89499644164431</v>
       </c>
       <c r="I32" t="n">
-        <v>46.89499644164432</v>
+        <v>46.89499644164431</v>
       </c>
       <c r="J32" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K32" t="n">
         <v>392.9020949275675</v>
@@ -6730,22 +6730,22 @@
         <v>2344.749822082216</v>
       </c>
       <c r="T32" t="n">
-        <v>2344.749822082216</v>
+        <v>2124.767062713794</v>
       </c>
       <c r="U32" t="n">
-        <v>2344.749822082216</v>
+        <v>2124.767062713794</v>
       </c>
       <c r="V32" t="n">
-        <v>2344.749822082216</v>
+        <v>2124.767062713794</v>
       </c>
       <c r="W32" t="n">
-        <v>2344.749822082216</v>
+        <v>2124.767062713794</v>
       </c>
       <c r="X32" t="n">
-        <v>2344.749822082216</v>
+        <v>1751.301304452714</v>
       </c>
       <c r="Y32" t="n">
-        <v>1954.610490106404</v>
+        <v>1361.161972476903</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.8792202047736</v>
+        <v>667.5947762567861</v>
       </c>
       <c r="C33" t="n">
-        <v>814.4261909236466</v>
+        <v>493.141746975659</v>
       </c>
       <c r="D33" t="n">
-        <v>665.4917812623953</v>
+        <v>344.2073373144078</v>
       </c>
       <c r="E33" t="n">
-        <v>506.2543262569397</v>
+        <v>184.9698823089523</v>
       </c>
       <c r="F33" t="n">
-        <v>359.7197682838247</v>
+        <v>184.9698823089523</v>
       </c>
       <c r="G33" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164431</v>
       </c>
       <c r="H33" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164431</v>
       </c>
       <c r="I33" t="n">
-        <v>46.89499644164432</v>
+        <v>46.89499644164431</v>
       </c>
       <c r="J33" t="n">
-        <v>46.89499644164432</v>
+        <v>46.89499644164431</v>
       </c>
       <c r="K33" t="n">
-        <v>121.668423207632</v>
+        <v>276.0646041288936</v>
       </c>
       <c r="L33" t="n">
-        <v>491.2196383161158</v>
+        <v>645.6158192373774</v>
       </c>
       <c r="M33" t="n">
-        <v>974.4476973832901</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N33" t="n">
-        <v>1486.172378671464</v>
+        <v>1640.568559592725</v>
       </c>
       <c r="O33" t="n">
-        <v>1887.88481026779</v>
+        <v>2042.280991189052</v>
       </c>
       <c r="P33" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082215</v>
       </c>
       <c r="Q33" t="n">
-        <v>2344.749822082216</v>
+        <v>2344.749822082215</v>
       </c>
       <c r="R33" t="n">
-        <v>2344.749822082216</v>
+        <v>2329.768094598542</v>
       </c>
       <c r="S33" t="n">
-        <v>2183.516266982771</v>
+        <v>2168.534539499097</v>
       </c>
       <c r="T33" t="n">
-        <v>2183.516266982771</v>
+        <v>1968.991841553128</v>
       </c>
       <c r="U33" t="n">
-        <v>2062.095821155272</v>
+        <v>1740.811377207285</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.94371292353</v>
+        <v>1505.659268975542</v>
       </c>
       <c r="W33" t="n">
-        <v>1572.706356195328</v>
+        <v>1251.421912247341</v>
       </c>
       <c r="X33" t="n">
-        <v>1364.854855989795</v>
+        <v>1043.570412041808</v>
       </c>
       <c r="Y33" t="n">
-        <v>1157.094557224842</v>
+        <v>835.8101132768541</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1895.967692040668</v>
+        <v>363.7442729519444</v>
       </c>
       <c r="C34" t="n">
-        <v>1783.876245087549</v>
+        <v>194.8080900240374</v>
       </c>
       <c r="D34" t="n">
-        <v>1783.876245087549</v>
+        <v>194.8080900240374</v>
       </c>
       <c r="E34" t="n">
-        <v>1783.876245087549</v>
+        <v>46.89499644164431</v>
       </c>
       <c r="F34" t="n">
-        <v>1783.876245087549</v>
+        <v>46.89499644164431</v>
       </c>
       <c r="G34" t="n">
-        <v>1783.876245087549</v>
+        <v>46.89499644164431</v>
       </c>
       <c r="H34" t="n">
-        <v>1783.876245087549</v>
+        <v>46.89499644164431</v>
       </c>
       <c r="I34" t="n">
-        <v>1783.876245087549</v>
+        <v>46.89499644164431</v>
       </c>
       <c r="J34" t="n">
-        <v>1783.876245087549</v>
+        <v>46.89499644164431</v>
       </c>
       <c r="K34" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702973</v>
       </c>
       <c r="L34" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200977</v>
       </c>
       <c r="M34" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362073</v>
       </c>
       <c r="N34" t="n">
-        <v>2181.73670676875</v>
+        <v>444.7554581228446</v>
       </c>
       <c r="O34" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496712</v>
       </c>
       <c r="P34" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363099</v>
       </c>
       <c r="Q34" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363099</v>
       </c>
       <c r="R34" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363099</v>
       </c>
       <c r="S34" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363099</v>
       </c>
       <c r="T34" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363099</v>
       </c>
       <c r="U34" t="n">
-        <v>2344.749822082216</v>
+        <v>363.7442729519444</v>
       </c>
       <c r="V34" t="n">
-        <v>2344.749822082216</v>
+        <v>363.7442729519444</v>
       </c>
       <c r="W34" t="n">
-        <v>2344.749822082216</v>
+        <v>363.7442729519444</v>
       </c>
       <c r="X34" t="n">
-        <v>2116.760271184198</v>
+        <v>363.7442729519444</v>
       </c>
       <c r="Y34" t="n">
-        <v>1895.967692040668</v>
+        <v>363.7442729519444</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1159.911464587051</v>
+        <v>774.1232119888066</v>
       </c>
       <c r="C35" t="n">
-        <v>790.948947646639</v>
+        <v>405.1606950483948</v>
       </c>
       <c r="D35" t="n">
-        <v>432.6832490398886</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E35" t="n">
         <v>46.89499644164432</v>
@@ -6943,16 +6943,16 @@
         <v>392.9020949275675</v>
       </c>
       <c r="L35" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244546</v>
       </c>
       <c r="M35" t="n">
         <v>1190.549107376118</v>
       </c>
       <c r="N35" t="n">
-        <v>1610.799342072557</v>
+        <v>1610.799342072556</v>
       </c>
       <c r="O35" t="n">
-        <v>1962.442083972113</v>
+        <v>1962.442083972112</v>
       </c>
       <c r="P35" t="n">
         <v>2224.886645733486</v>
@@ -6964,25 +6964,25 @@
         <v>2344.749822082216</v>
       </c>
       <c r="S35" t="n">
-        <v>2344.749822082216</v>
+        <v>2339.020879141133</v>
       </c>
       <c r="T35" t="n">
-        <v>2124.767062713794</v>
+        <v>2119.038119772712</v>
       </c>
       <c r="U35" t="n">
-        <v>1881.113683906433</v>
+        <v>1865.251697657579</v>
       </c>
       <c r="V35" t="n">
-        <v>1550.050796562862</v>
+        <v>1534.188810314008</v>
       </c>
       <c r="W35" t="n">
-        <v>1550.050796562862</v>
+        <v>1534.188810314008</v>
       </c>
       <c r="X35" t="n">
-        <v>1550.050796562862</v>
+        <v>1160.723052052928</v>
       </c>
       <c r="Y35" t="n">
-        <v>1159.911464587051</v>
+        <v>1160.723052052928</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.8792202047736</v>
+        <v>622.1327649551149</v>
       </c>
       <c r="C36" t="n">
-        <v>814.4261909236466</v>
+        <v>447.6797356739879</v>
       </c>
       <c r="D36" t="n">
-        <v>665.4917812623953</v>
+        <v>447.6797356739879</v>
       </c>
       <c r="E36" t="n">
-        <v>506.2543262569397</v>
+        <v>288.4422806685324</v>
       </c>
       <c r="F36" t="n">
-        <v>359.7197682838247</v>
+        <v>288.4422806685324</v>
       </c>
       <c r="G36" t="n">
-        <v>221.6448824165167</v>
+        <v>150.3673948012245</v>
       </c>
       <c r="H36" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I36" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J36" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050502</v>
       </c>
       <c r="K36" t="n">
-        <v>276.0646041288937</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L36" t="n">
-        <v>645.6158192373775</v>
+        <v>705.6153558007834</v>
       </c>
       <c r="M36" t="n">
-        <v>1128.843878304552</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N36" t="n">
-        <v>1640.568559592725</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O36" t="n">
-        <v>2042.280991189052</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P36" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q36" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R36" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S36" t="n">
-        <v>2344.749822082216</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T36" t="n">
-        <v>2290.276285501115</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U36" t="n">
-        <v>2062.095821155272</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.94371292353</v>
+        <v>1460.197257673871</v>
       </c>
       <c r="W36" t="n">
-        <v>1572.706356195328</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X36" t="n">
-        <v>1364.854855989795</v>
+        <v>998.1084007401369</v>
       </c>
       <c r="Y36" t="n">
-        <v>1157.094557224842</v>
+        <v>790.348101975183</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>607.7685734363099</v>
+        <v>215.8311793695512</v>
       </c>
       <c r="C37" t="n">
-        <v>438.832390508403</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D37" t="n">
-        <v>438.832390508403</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E37" t="n">
-        <v>438.832390508403</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F37" t="n">
-        <v>346.3547163191316</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G37" t="n">
-        <v>346.3547163191316</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H37" t="n">
-        <v>187.3781536425449</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I37" t="n">
         <v>46.89499644164432</v>
@@ -7122,25 +7122,25 @@
         <v>607.7685734363099</v>
       </c>
       <c r="S37" t="n">
-        <v>607.7685734363099</v>
+        <v>443.7296012114658</v>
       </c>
       <c r="T37" t="n">
-        <v>607.7685734363099</v>
+        <v>215.8311793695512</v>
       </c>
       <c r="U37" t="n">
-        <v>607.7685734363099</v>
+        <v>215.8311793695512</v>
       </c>
       <c r="V37" t="n">
-        <v>607.7685734363099</v>
+        <v>215.8311793695512</v>
       </c>
       <c r="W37" t="n">
-        <v>607.7685734363099</v>
+        <v>215.8311793695512</v>
       </c>
       <c r="X37" t="n">
-        <v>607.7685734363099</v>
+        <v>215.8311793695512</v>
       </c>
       <c r="Y37" t="n">
-        <v>607.7685734363099</v>
+        <v>215.8311793695512</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1989.169136893773</v>
+        <v>1510.310678666043</v>
       </c>
       <c r="C38" t="n">
-        <v>1620.206619953362</v>
+        <v>1141.348161725632</v>
       </c>
       <c r="D38" t="n">
-        <v>1261.940921346611</v>
+        <v>783.0824631188814</v>
       </c>
       <c r="E38" t="n">
-        <v>876.152668748367</v>
+        <v>783.0824631188814</v>
       </c>
       <c r="F38" t="n">
-        <v>465.1667639587595</v>
+        <v>372.0965583292738</v>
       </c>
       <c r="G38" t="n">
         <v>46.89499644164432</v>
@@ -7174,13 +7174,13 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J38" t="n">
-        <v>137.0453218915532</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K38" t="n">
-        <v>392.9020949275673</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L38" t="n">
-        <v>762.5916738244546</v>
+        <v>762.5916738244548</v>
       </c>
       <c r="M38" t="n">
         <v>1190.549107376118</v>
@@ -7189,7 +7189,7 @@
         <v>1610.799342072556</v>
       </c>
       <c r="O38" t="n">
-        <v>1962.442083972112</v>
+        <v>1962.442083972113</v>
       </c>
       <c r="P38" t="n">
         <v>2224.886645733486</v>
@@ -7198,28 +7198,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R38" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="S38" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="T38" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="U38" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="V38" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="W38" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="X38" t="n">
-        <v>2344.749822082216</v>
+        <v>1896.910518730165</v>
       </c>
       <c r="Y38" t="n">
-        <v>2344.749822082216</v>
+        <v>1896.910518730165</v>
       </c>
     </row>
     <row r="39">
@@ -7229,46 +7229,46 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>682.5765037404599</v>
+        <v>850.3132293009576</v>
       </c>
       <c r="C39" t="n">
-        <v>508.1234744593329</v>
+        <v>675.8602000198306</v>
       </c>
       <c r="D39" t="n">
-        <v>359.1890647980816</v>
+        <v>526.9257903585793</v>
       </c>
       <c r="E39" t="n">
-        <v>199.9516097926261</v>
+        <v>367.6883353531238</v>
       </c>
       <c r="F39" t="n">
-        <v>53.4170518195111</v>
+        <v>221.1537773800088</v>
       </c>
       <c r="G39" t="n">
-        <v>53.4170518195111</v>
+        <v>83.07889151270084</v>
       </c>
       <c r="H39" t="n">
-        <v>53.4170518195111</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I39" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J39" t="n">
-        <v>106.8945330050502</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K39" t="n">
-        <v>336.0641406922996</v>
+        <v>273.1268607498449</v>
       </c>
       <c r="L39" t="n">
-        <v>705.6153558007834</v>
+        <v>642.6780758583287</v>
       </c>
       <c r="M39" t="n">
-        <v>1188.843414867958</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N39" t="n">
-        <v>1700.568096156131</v>
+        <v>1637.630816213676</v>
       </c>
       <c r="O39" t="n">
-        <v>2102.280527752458</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P39" t="n">
         <v>2344.749822082216</v>
@@ -7277,28 +7277,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R39" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S39" t="n">
-        <v>2183.516266982771</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T39" t="n">
-        <v>1983.973569036802</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U39" t="n">
-        <v>1755.793104690959</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="V39" t="n">
-        <v>1520.640996459216</v>
+        <v>1688.377722019714</v>
       </c>
       <c r="W39" t="n">
-        <v>1266.403639731015</v>
+        <v>1434.140365291512</v>
       </c>
       <c r="X39" t="n">
-        <v>1058.552139525482</v>
+        <v>1226.28886508598</v>
       </c>
       <c r="Y39" t="n">
-        <v>850.791840760528</v>
+        <v>1018.528566321026</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2090.065333876329</v>
+        <v>386.9759942927798</v>
       </c>
       <c r="C40" t="n">
-        <v>2090.065333876329</v>
+        <v>344.9247294363731</v>
       </c>
       <c r="D40" t="n">
-        <v>2090.065333876329</v>
+        <v>194.8080900240374</v>
       </c>
       <c r="E40" t="n">
-        <v>2090.065333876329</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F40" t="n">
-        <v>2090.065333876329</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G40" t="n">
-        <v>1920.927393622839</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H40" t="n">
-        <v>1783.876245087549</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I40" t="n">
-        <v>1783.876245087549</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J40" t="n">
-        <v>1783.876245087549</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K40" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702973</v>
       </c>
       <c r="L40" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200977</v>
       </c>
       <c r="M40" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362073</v>
       </c>
       <c r="N40" t="n">
-        <v>2181.73670676875</v>
+        <v>444.7554581228446</v>
       </c>
       <c r="O40" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496712</v>
       </c>
       <c r="P40" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363099</v>
       </c>
       <c r="Q40" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363099</v>
       </c>
       <c r="R40" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363099</v>
       </c>
       <c r="S40" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363099</v>
       </c>
       <c r="T40" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363099</v>
       </c>
       <c r="U40" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363099</v>
       </c>
       <c r="V40" t="n">
-        <v>2090.065333876329</v>
+        <v>607.7685734363099</v>
       </c>
       <c r="W40" t="n">
-        <v>2090.065333876329</v>
+        <v>607.7685734363099</v>
       </c>
       <c r="X40" t="n">
-        <v>2090.065333876329</v>
+        <v>607.7685734363099</v>
       </c>
       <c r="Y40" t="n">
-        <v>2090.065333876329</v>
+        <v>386.9759942927798</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1958.149982018094</v>
+        <v>1570.897369376658</v>
       </c>
       <c r="C41" t="n">
-        <v>1958.149982018094</v>
+        <v>1201.934852436247</v>
       </c>
       <c r="D41" t="n">
-        <v>1757.628112035911</v>
+        <v>843.6691538294961</v>
       </c>
       <c r="E41" t="n">
-        <v>1371.839859437666</v>
+        <v>457.8809012312519</v>
       </c>
       <c r="F41" t="n">
-        <v>960.8539546480588</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G41" t="n">
-        <v>542.5821871309436</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H41" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I41" t="n">
         <v>46.89499644164432</v>
@@ -7456,7 +7456,7 @@
         <v>2344.749822082216</v>
       </c>
       <c r="Y41" t="n">
-        <v>2344.749822082216</v>
+        <v>1957.49720944078</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>622.1327649551149</v>
+        <v>783.0885888266431</v>
       </c>
       <c r="C42" t="n">
-        <v>447.6797356739879</v>
+        <v>608.6355595455161</v>
       </c>
       <c r="D42" t="n">
-        <v>298.7453260127367</v>
+        <v>459.7011498842648</v>
       </c>
       <c r="E42" t="n">
-        <v>139.5078710072812</v>
+        <v>300.4636948788093</v>
       </c>
       <c r="F42" t="n">
-        <v>139.5078710072812</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="G42" t="n">
-        <v>46.89499644164432</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H42" t="n">
         <v>46.89499644164432</v>
@@ -7490,25 +7490,25 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J42" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050502</v>
       </c>
       <c r="K42" t="n">
-        <v>273.1268607498445</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L42" t="n">
-        <v>642.6780758583284</v>
+        <v>705.6153558007834</v>
       </c>
       <c r="M42" t="n">
-        <v>1125.906134925503</v>
+        <v>974.44769738329</v>
       </c>
       <c r="N42" t="n">
-        <v>1637.630816213676</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O42" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P42" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q42" t="n">
         <v>2344.749822082216</v>
@@ -7523,19 +7523,19 @@
         <v>1923.529830251457</v>
       </c>
       <c r="U42" t="n">
-        <v>1695.349365905614</v>
+        <v>1856.305189777142</v>
       </c>
       <c r="V42" t="n">
-        <v>1460.197257673871</v>
+        <v>1621.153081545399</v>
       </c>
       <c r="W42" t="n">
-        <v>1205.95990094567</v>
+        <v>1366.915724817198</v>
       </c>
       <c r="X42" t="n">
-        <v>998.1084007401369</v>
+        <v>1159.064224611665</v>
       </c>
       <c r="Y42" t="n">
-        <v>790.348101975183</v>
+        <v>951.3039258467111</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>411.7373584252011</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C43" t="n">
-        <v>242.8011754972942</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D43" t="n">
-        <v>242.8011754972942</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E43" t="n">
-        <v>242.8011754972942</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F43" t="n">
-        <v>242.8011754972942</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G43" t="n">
-        <v>242.8011754972942</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H43" t="n">
-        <v>242.8011754972942</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I43" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J43" t="n">
         <v>46.89499644164432</v>
@@ -7590,31 +7590,31 @@
         <v>607.7685734363101</v>
       </c>
       <c r="Q43" t="n">
-        <v>566.7843137019199</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="R43" t="n">
-        <v>412.4263787765004</v>
+        <v>453.4106385108906</v>
       </c>
       <c r="S43" t="n">
-        <v>411.7373584252011</v>
+        <v>453.4106385108906</v>
       </c>
       <c r="T43" t="n">
-        <v>411.7373584252011</v>
+        <v>336.3121664786049</v>
       </c>
       <c r="U43" t="n">
-        <v>411.7373584252011</v>
+        <v>336.3121664786049</v>
       </c>
       <c r="V43" t="n">
-        <v>411.7373584252011</v>
+        <v>336.3121664786049</v>
       </c>
       <c r="W43" t="n">
-        <v>411.7373584252011</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X43" t="n">
-        <v>411.7373584252011</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y43" t="n">
-        <v>411.7373584252011</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>377.243605767603</v>
+        <v>876.152668748367</v>
       </c>
       <c r="C44" t="n">
-        <v>377.243605767603</v>
+        <v>876.152668748367</v>
       </c>
       <c r="D44" t="n">
-        <v>377.243605767603</v>
+        <v>876.152668748367</v>
       </c>
       <c r="E44" t="n">
-        <v>377.243605767603</v>
+        <v>876.152668748367</v>
       </c>
       <c r="F44" t="n">
-        <v>377.243605767603</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="G44" t="n">
-        <v>377.243605767603</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H44" t="n">
         <v>46.89499644164432</v>
@@ -7648,10 +7648,10 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J44" t="n">
-        <v>137.0453218915533</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K44" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L44" t="n">
         <v>762.5916738244548</v>
@@ -7672,28 +7672,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R44" t="n">
-        <v>2332.280604895741</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="S44" t="n">
-        <v>2332.280604895741</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="T44" t="n">
-        <v>2112.29784552732</v>
+        <v>2224.607068443962</v>
       </c>
       <c r="U44" t="n">
-        <v>1858.511423412187</v>
+        <v>1970.820646328829</v>
       </c>
       <c r="V44" t="n">
-        <v>1527.448536068616</v>
+        <v>1639.757758985259</v>
       </c>
       <c r="W44" t="n">
-        <v>1527.448536068616</v>
+        <v>1639.757758985259</v>
       </c>
       <c r="X44" t="n">
-        <v>1153.982777807536</v>
+        <v>1266.292000724179</v>
       </c>
       <c r="Y44" t="n">
-        <v>763.8434458317248</v>
+        <v>876.152668748367</v>
       </c>
     </row>
     <row r="45">
@@ -7703,49 +7703,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>921.1634746939509</v>
+        <v>622.1327649551149</v>
       </c>
       <c r="C45" t="n">
-        <v>746.7104454128239</v>
+        <v>447.6797356739879</v>
       </c>
       <c r="D45" t="n">
-        <v>597.7760357515726</v>
+        <v>298.7453260127367</v>
       </c>
       <c r="E45" t="n">
-        <v>438.5385807461172</v>
+        <v>298.7453260127367</v>
       </c>
       <c r="F45" t="n">
-        <v>292.0040227730022</v>
+        <v>252.6856278197748</v>
       </c>
       <c r="G45" t="n">
-        <v>153.9291369056942</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="H45" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I45" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J45" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050502</v>
       </c>
       <c r="K45" t="n">
-        <v>121.6684232076318</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L45" t="n">
-        <v>491.2196383161157</v>
+        <v>705.6153558007834</v>
       </c>
       <c r="M45" t="n">
-        <v>974.44769738329</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N45" t="n">
-        <v>1486.172378671464</v>
+        <v>1700.568096156131</v>
       </c>
       <c r="O45" t="n">
-        <v>1887.88481026779</v>
+        <v>2102.280527752458</v>
       </c>
       <c r="P45" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q45" t="n">
         <v>2344.749822082216</v>
@@ -7760,19 +7760,19 @@
         <v>1923.529830251457</v>
       </c>
       <c r="U45" t="n">
-        <v>1759.227967412707</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V45" t="n">
-        <v>1759.227967412707</v>
+        <v>1460.197257673871</v>
       </c>
       <c r="W45" t="n">
-        <v>1504.990610684506</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X45" t="n">
-        <v>1297.139110478973</v>
+        <v>998.1084007401369</v>
       </c>
       <c r="Y45" t="n">
-        <v>1089.378811714019</v>
+        <v>790.348101975183</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2252.473905218527</v>
+        <v>379.8701515943956</v>
       </c>
       <c r="C46" t="n">
-        <v>2252.473905218527</v>
+        <v>379.8701515943956</v>
       </c>
       <c r="D46" t="n">
-        <v>2252.473905218527</v>
+        <v>379.8701515943956</v>
       </c>
       <c r="E46" t="n">
-        <v>2252.473905218527</v>
+        <v>379.8701515943956</v>
       </c>
       <c r="F46" t="n">
-        <v>2252.473905218527</v>
+        <v>232.9802040964852</v>
       </c>
       <c r="G46" t="n">
-        <v>2083.335964965037</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="H46" t="n">
-        <v>1924.35940228845</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="I46" t="n">
-        <v>1783.876245087549</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J46" t="n">
-        <v>1783.876245087549</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K46" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702974</v>
       </c>
       <c r="L46" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200977</v>
       </c>
       <c r="M46" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362074</v>
       </c>
       <c r="N46" t="n">
-        <v>2181.73670676875</v>
+        <v>444.7554581228447</v>
       </c>
       <c r="O46" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496714</v>
       </c>
       <c r="P46" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="Q46" t="n">
-        <v>2303.765562347825</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="R46" t="n">
-        <v>2252.473905218527</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="S46" t="n">
-        <v>2252.473905218527</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="T46" t="n">
-        <v>2252.473905218527</v>
+        <v>379.8701515943956</v>
       </c>
       <c r="U46" t="n">
-        <v>2252.473905218527</v>
+        <v>379.8701515943956</v>
       </c>
       <c r="V46" t="n">
-        <v>2252.473905218527</v>
+        <v>379.8701515943956</v>
       </c>
       <c r="W46" t="n">
-        <v>2252.473905218527</v>
+        <v>379.8701515943956</v>
       </c>
       <c r="X46" t="n">
-        <v>2252.473905218527</v>
+        <v>379.8701515943956</v>
       </c>
       <c r="Y46" t="n">
-        <v>2252.473905218527</v>
+        <v>379.8701515943956</v>
       </c>
     </row>
   </sheetData>
@@ -8060,13 +8060,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>185.3423563661624</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,13 +8297,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>243.2069195535496</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
@@ -8534,16 +8534,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>292.5201795090609</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212002</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>261.4978194579835</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8786,7 +8786,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>254.8897585970533</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>57.08896698613913</v>
@@ -9008,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>47.90390621998484</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9023,10 +9023,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>254.8897585970533</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613913</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212002</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9254,7 +9254,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>415.7693643006701</v>
+        <v>476.3749567889586</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>57.08896698613916</v>
+        <v>57.08896698613913</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>65.48544285212003</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>261.4978194579835</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9491,7 +9491,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>262.7810435509599</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>57.08896698613916</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,10 +9719,10 @@
         <v>65.48544285212003</v>
       </c>
       <c r="K24" t="n">
-        <v>108.5094987082739</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>367.8729277488644</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613916</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9956,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>200.8922269696947</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9965,7 +9965,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>415.7693643006696</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>65.48544285212003</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>261.497819457984</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10205,7 +10205,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>330.2893092338454</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10430,7 +10430,7 @@
         <v>65.48544285212003</v>
       </c>
       <c r="K33" t="n">
-        <v>108.5094987082739</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10445,10 +10445,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>315.4953510853418</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613916</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>65.48544285212003</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10676,16 +10676,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>262.7810435509601</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>315.4953510853422</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>57.08896698613916</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212003</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>261.497819457984</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10919,7 +10919,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>254.8897585970533</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>57.08896698613916</v>
@@ -11138,16 +11138,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>65.48544285212002</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>261.4978194579835</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>249.1437329574063</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>57.08896698613913</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11296,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504503</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11375,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>65.48544285212002</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>108.5094987082737</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11393,10 +11393,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>254.8897585970533</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613913</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23260,7 +23260,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>215.3327522553371</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23269,16 +23269,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T11" t="n">
-        <v>143.4811033337773</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23320,7 +23320,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23348,16 +23348,16 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>53.38246657340341</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>59.83930139749143</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>105.6924183331608</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23427,19 +23427,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>108.936681964082</v>
+        <v>102.2986427582985</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>54.86879163620182</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T13" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2893338015361</v>
@@ -23478,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23503,16 +23503,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>288.9864959217999</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>163.6851955497072</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>73.62980964006114</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>149.840470466736</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23585,16 +23585,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>45.00739118865402</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>165.5317197306524</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23658,25 +23658,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>108.936681964082</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>47.32019098103984</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>54.86879163620182</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>264.844291843569</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>46.8889180387481</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -23746,7 +23746,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>327.0451232326991</v>
@@ -23788,19 +23788,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23822,16 +23822,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>0.4861939861428652</v>
       </c>
       <c r="G18" t="n">
         <v>136.6941370086349</v>
       </c>
       <c r="H18" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>53.38246657340333</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23867,7 +23867,7 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>86.86339572062681</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23907,13 +23907,13 @@
         <v>167.4465608509556</v>
       </c>
       <c r="H19" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>139.0783256288916</v>
       </c>
       <c r="J19" t="n">
-        <v>54.86879163620183</v>
+        <v>54.86879163620182</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>40.57441713704633</v>
+        <v>40.57441713704632</v>
       </c>
       <c r="R19" t="n">
         <v>152.8143555761653</v>
@@ -23943,7 +23943,7 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T19" t="n">
-        <v>225.6194376234954</v>
+        <v>114.2643917851881</v>
       </c>
       <c r="U19" t="n">
         <v>286.2893338015361</v>
@@ -23952,7 +23952,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23968,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -23989,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>130.7950958076883</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,10 +24016,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>23.24213611893624</v>
+        <v>73.62980964006114</v>
       </c>
       <c r="S20" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24031,10 +24031,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24062,13 +24062,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>105.9637990594094</v>
       </c>
       <c r="I21" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>53.38246657340379</v>
+        <v>59.83930139749143</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -24104,7 +24104,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>197.2758902402609</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24135,13 +24135,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>118.5655985246777</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>157.3867970498209</v>
@@ -24150,7 +24150,7 @@
         <v>139.0783256288916</v>
       </c>
       <c r="J22" t="n">
-        <v>54.86879163620183</v>
+        <v>54.86879163620182</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,25 +24171,25 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>40.57441713704633</v>
+        <v>40.57441713704632</v>
       </c>
       <c r="R22" t="n">
         <v>152.8143555761653</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T22" t="n">
         <v>225.6194376234954</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2893338015361</v>
+        <v>184.9940517643637</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>174.9486415759094</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H23" t="n">
         <v>327.0451232326991</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24262,19 +24262,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>201.3876272057018</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24284,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>98.49313167493786</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -24296,13 +24296,13 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>130.2373021845468</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>67.03858805571426</v>
@@ -24332,13 +24332,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>59.83930139749143</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24445,19 +24445,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>38.00852354146582</v>
+        <v>6.726690934618489</v>
       </c>
       <c r="H26" t="n">
         <v>327.0451232326991</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24536,13 +24536,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24569,22 +24569,22 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>59.83930139749143</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>53.38246657340397</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>143.6184697512205</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H28" t="n">
-        <v>157.3867970498209</v>
+        <v>36.24971711877511</v>
       </c>
       <c r="I28" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>54.86879163620183</v>
@@ -24654,7 +24654,7 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T28" t="n">
-        <v>17.63313743166941</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U28" t="n">
         <v>286.2893338015361</v>
@@ -24682,25 +24682,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>397.3717385702378</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>414.089049841944</v>
+        <v>160.509648256907</v>
       </c>
       <c r="H29" t="n">
         <v>327.0451232326991</v>
       </c>
       <c r="I29" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,10 +24730,10 @@
         <v>73.62980964006115</v>
       </c>
       <c r="S29" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24776,10 +24776,10 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>76.57988169550622</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24812,7 +24812,7 @@
         <v>159.6212195484502</v>
       </c>
       <c r="T30" t="n">
-        <v>143.6184697512199</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -24849,7 +24849,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>167.4465608509556</v>
@@ -24894,10 +24894,10 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U31" t="n">
-        <v>269.6851342372362</v>
+        <v>162.9685389363395</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24916,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2.85785214103214</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>215.6545186222094</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>327.0451232326991</v>
@@ -24970,7 +24970,7 @@
         <v>181.3631617334038</v>
       </c>
       <c r="T32" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.2485578939812</v>
@@ -24982,7 +24982,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25007,16 +25007,16 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25043,16 +25043,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>59.83930139749143</v>
+        <v>45.00739118865447</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>105.6924183331608</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25077,13 +25077,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>56.27628861504029</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25131,7 +25131,7 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2893338015361</v>
+        <v>44.70527632201427</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25140,10 +25140,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25162,7 +25162,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -25204,13 +25204,13 @@
         <v>73.62980964006115</v>
       </c>
       <c r="S35" t="n">
-        <v>181.3631617334038</v>
+        <v>175.6915082217321</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>10.03171287469368</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25219,10 +25219,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25238,22 +25238,22 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>3.526124683425081</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,13 +25280,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>59.83930139749143</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>143.6184697512199</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25323,16 +25323,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>53.86815057555256</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>167.4465608509556</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J37" t="n">
         <v>54.86879163620183</v>
@@ -25362,10 +25362,10 @@
         <v>152.8143555761653</v>
       </c>
       <c r="S37" t="n">
-        <v>214.5288682289405</v>
+        <v>52.13028572634488</v>
       </c>
       <c r="T37" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2893338015361</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>30.70896332692257</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25399,13 +25399,13 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>92.13950357319078</v>
       </c>
       <c r="H38" t="n">
         <v>327.0451232326991</v>
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>73.62980964006115</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>181.3631617334038</v>
@@ -25456,7 +25456,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25484,13 +25484,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>105.9637990594094</v>
+        <v>70.14174293906348</v>
       </c>
       <c r="I39" t="n">
-        <v>60.58175323162614</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>59.83930139749143</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -25526,7 +25526,7 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25551,22 +25551,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>125.6160688907853</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H40" t="n">
-        <v>21.70615999988473</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I40" t="n">
         <v>139.0783256288916</v>
@@ -25608,7 +25608,7 @@
         <v>286.2893338015361</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25617,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25630,10 +25630,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>156.1663903383213</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>2.857852141032026</v>
       </c>
     </row>
     <row r="42">
@@ -25718,13 +25718,13 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>45.0073911886544</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H42" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>67.03858805571426</v>
@@ -25763,7 +25763,7 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>159.3462656328129</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25806,10 +25806,10 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>54.86879163620182</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,16 +25830,16 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>40.57441713704632</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>213.8467380811542</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T43" t="n">
-        <v>225.6194376234954</v>
+        <v>109.6919503115326</v>
       </c>
       <c r="U43" t="n">
         <v>286.2893338015361</v>
@@ -25848,7 +25848,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25876,13 +25876,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I44" t="n">
         <v>163.6851955497072</v>
@@ -25912,13 +25912,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>61.28528462545143</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>172.4714153129271</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25952,19 +25952,19 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>99.47011118235162</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I45" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -26000,10 +26000,10 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>63.23981549202236</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -26034,13 +26034,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>122.3005309015547</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26067,16 +26067,16 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>40.57441713704632</v>
       </c>
       <c r="R46" t="n">
-        <v>102.0356150181602</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S46" t="n">
         <v>214.5288682289405</v>
       </c>
       <c r="T46" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2893338015361</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>638793.747433838</v>
+        <v>638793.7474338379</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>638793.747433838</v>
+        <v>638793.7474338381</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>638793.747433838</v>
+        <v>638793.7474338379</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>638793.747433838</v>
+        <v>638793.7474338379</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>638793.7474338377</v>
+        <v>638793.747433838</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>638793.7474338377</v>
+        <v>638793.7474338376</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>638793.747433838</v>
+        <v>638793.7474338379</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>638793.7474338377</v>
+        <v>638793.747433838</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>638793.7474338379</v>
+        <v>638793.7474338381</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>638793.7474338382</v>
+        <v>638793.7474338379</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>638793.747433838</v>
+        <v>638793.7474338377</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.0176719631</v>
       </c>
       <c r="C2" t="n">
         <v>472099.017671963</v>
@@ -26322,37 +26322,37 @@
         <v>472099.017671963</v>
       </c>
       <c r="E2" t="n">
+        <v>304032.5147288473</v>
+      </c>
+      <c r="F2" t="n">
+        <v>304032.5147288476</v>
+      </c>
+      <c r="G2" t="n">
         <v>304032.5147288475</v>
       </c>
-      <c r="F2" t="n">
-        <v>304032.5147288477</v>
-      </c>
-      <c r="G2" t="n">
-        <v>304032.5147288478</v>
-      </c>
       <c r="H2" t="n">
-        <v>304032.5147288474</v>
+        <v>304032.5147288476</v>
       </c>
       <c r="I2" t="n">
+        <v>304032.5147288476</v>
+      </c>
+      <c r="J2" t="n">
         <v>304032.5147288475</v>
       </c>
-      <c r="J2" t="n">
-        <v>304032.5147288478</v>
-      </c>
       <c r="K2" t="n">
-        <v>304032.5147288477</v>
+        <v>304032.5147288476</v>
       </c>
       <c r="L2" t="n">
         <v>304032.5147288477</v>
       </c>
       <c r="M2" t="n">
-        <v>304032.5147288478</v>
+        <v>304032.5147288477</v>
       </c>
       <c r="N2" t="n">
-        <v>304032.5147288478</v>
+        <v>304032.5147288477</v>
       </c>
       <c r="O2" t="n">
-        <v>304032.5147288475</v>
+        <v>304032.5147288476</v>
       </c>
       <c r="P2" t="n">
         <v>304032.5147288477</v>
@@ -26487,7 +26487,7 @@
         <v>42221.72212544655</v>
       </c>
       <c r="H5" t="n">
-        <v>42221.72212544654</v>
+        <v>42221.72212544655</v>
       </c>
       <c r="I5" t="n">
         <v>42221.72212544655</v>
@@ -26496,10 +26496,10 @@
         <v>42221.72212544654</v>
       </c>
       <c r="K5" t="n">
-        <v>42221.72212544655</v>
+        <v>42221.72212544654</v>
       </c>
       <c r="L5" t="n">
-        <v>42221.72212544655</v>
+        <v>42221.72212544654</v>
       </c>
       <c r="M5" t="n">
         <v>42221.72212544655</v>
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>47188.10010121321</v>
+        <v>47188.10010121344</v>
       </c>
       <c r="C6" t="n">
         <v>127957.5316327611</v>
@@ -26530,40 +26530,40 @@
         <v>127957.5316327611</v>
       </c>
       <c r="E6" t="n">
-        <v>-101756.6135492047</v>
+        <v>-109063.8528076012</v>
       </c>
       <c r="F6" t="n">
-        <v>243855.7292297481</v>
+        <v>236548.4899713517</v>
       </c>
       <c r="G6" t="n">
-        <v>243855.7292297482</v>
+        <v>236548.4899713516</v>
       </c>
       <c r="H6" t="n">
-        <v>243855.7292297478</v>
+        <v>236548.4899713517</v>
       </c>
       <c r="I6" t="n">
-        <v>243855.729229748</v>
+        <v>236548.4899713517</v>
       </c>
       <c r="J6" t="n">
-        <v>180795.786630642</v>
+        <v>173488.5473722454</v>
       </c>
       <c r="K6" t="n">
-        <v>243855.7292297481</v>
+        <v>236548.4899713517</v>
       </c>
       <c r="L6" t="n">
-        <v>243855.7292297481</v>
+        <v>236548.4899713518</v>
       </c>
       <c r="M6" t="n">
-        <v>157837.1954096722</v>
+        <v>150529.9561512758</v>
       </c>
       <c r="N6" t="n">
-        <v>243855.7292297482</v>
+        <v>236548.4899713518</v>
       </c>
       <c r="O6" t="n">
-        <v>243855.7292297479</v>
+        <v>236548.4899713517</v>
       </c>
       <c r="P6" t="n">
-        <v>243855.7292297481</v>
+        <v>236548.4899713518</v>
       </c>
     </row>
   </sheetData>
@@ -26752,10 +26752,10 @@
         <v>301.9048087062786</v>
       </c>
       <c r="G3" t="n">
-        <v>301.9048087062785</v>
+        <v>301.9048087062786</v>
       </c>
       <c r="H3" t="n">
-        <v>301.9048087062785</v>
+        <v>301.9048087062786</v>
       </c>
       <c r="I3" t="n">
         <v>301.9048087062785</v>
@@ -26807,7 +26807,7 @@
         <v>586.187455520554</v>
       </c>
       <c r="H4" t="n">
-        <v>586.1874555205538</v>
+        <v>586.187455520554</v>
       </c>
       <c r="I4" t="n">
         <v>586.187455520554</v>
@@ -26816,10 +26816,10 @@
         <v>586.1874555205538</v>
       </c>
       <c r="K4" t="n">
-        <v>586.187455520554</v>
+        <v>586.1874555205538</v>
       </c>
       <c r="L4" t="n">
-        <v>586.187455520554</v>
+        <v>586.1874555205538</v>
       </c>
       <c r="M4" t="n">
         <v>586.187455520554</v>
@@ -27381,10 +27381,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27393,13 +27393,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>381.7025041237114</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -27438,10 +27438,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>129.0472453454436</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27457,19 +27457,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>149.8987087301647</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -27478,10 +27478,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27511,22 +27511,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>122.7184943743609</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27554,7 +27554,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>54.03113748306089</v>
       </c>
       <c r="I4" t="n">
         <v>155.4504749272583</v>
@@ -27563,7 +27563,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,7 +27578,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27621,22 +27621,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>169.9996104372708</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -27675,16 +27675,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>218.0713248386154</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27712,7 +27712,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27742,10 +27742,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -27754,10 +27754,10 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>65.41665298739503</v>
+        <v>216.6925153309472</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -27791,16 +27791,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>31.76164565717804</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27815,7 +27815,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27864,7 +27864,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>192.1783936941173</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -27909,7 +27909,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
         <v>86.73796959247585</v>
@@ -27918,7 +27918,7 @@
         <v>108.226679839754</v>
       </c>
       <c r="X8" t="n">
-        <v>194.6884411193194</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27931,16 +27931,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -27949,7 +27949,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27979,22 +27979,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>11.54007894861608</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>54.73595870413436</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28031,13 +28031,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28067,7 +28067,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>155.8535025062293</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.213687673191068</v>
+        <v>1.213687673191069</v>
       </c>
       <c r="H17" t="n">
-        <v>12.42967888306803</v>
+        <v>12.42967888306804</v>
       </c>
       <c r="I17" t="n">
         <v>46.79069402069872</v>
       </c>
       <c r="J17" t="n">
-        <v>103.0102241525005</v>
+        <v>103.0102241525006</v>
       </c>
       <c r="K17" t="n">
         <v>154.3856233586785</v>
@@ -32259,16 +32259,16 @@
         <v>131.0646147183121</v>
       </c>
       <c r="R17" t="n">
-        <v>76.23930830108853</v>
+        <v>76.23930830108854</v>
       </c>
       <c r="S17" t="n">
-        <v>27.6569078528415</v>
+        <v>27.65690785284151</v>
       </c>
       <c r="T17" t="n">
-        <v>5.312917789393905</v>
+        <v>5.312917789393906</v>
       </c>
       <c r="U17" t="n">
-        <v>0.09709501385528546</v>
+        <v>0.09709501385528548</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6493801545757689</v>
+        <v>0.649380154575769</v>
       </c>
       <c r="H18" t="n">
         <v>6.271645177087033</v>
@@ -32314,7 +32314,7 @@
         <v>22.35804479570082</v>
       </c>
       <c r="J18" t="n">
-        <v>61.35218381454667</v>
+        <v>61.35218381454668</v>
       </c>
       <c r="K18" t="n">
         <v>104.8606541711232</v>
@@ -32326,7 +32326,7 @@
         <v>164.5381207449218</v>
       </c>
       <c r="N18" t="n">
-        <v>168.8929552025812</v>
+        <v>168.8929552025813</v>
       </c>
       <c r="O18" t="n">
         <v>154.5040580932971</v>
@@ -32335,10 +32335,10 @@
         <v>124.0031279382449</v>
       </c>
       <c r="Q18" t="n">
-        <v>82.89280709988236</v>
+        <v>82.89280709988239</v>
       </c>
       <c r="R18" t="n">
-        <v>40.3185327551517</v>
+        <v>40.31853275515171</v>
       </c>
       <c r="S18" t="n">
         <v>12.06195155538763</v>
@@ -32347,7 +32347,7 @@
         <v>2.61745772831198</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04272237859051113</v>
+        <v>0.04272237859051114</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,46 +32384,46 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5444185075031251</v>
+        <v>0.5444185075031253</v>
       </c>
       <c r="H19" t="n">
-        <v>4.840375457618697</v>
+        <v>4.840375457618698</v>
       </c>
       <c r="I19" t="n">
-        <v>16.37214929836671</v>
+        <v>16.37214929836672</v>
       </c>
       <c r="J19" t="n">
         <v>38.49038848047095</v>
       </c>
       <c r="K19" t="n">
-        <v>63.25153205354489</v>
+        <v>63.2515320535449</v>
       </c>
       <c r="L19" t="n">
-        <v>80.94018428823736</v>
+        <v>80.94018428823738</v>
       </c>
       <c r="M19" t="n">
-        <v>85.34007568069441</v>
+        <v>85.34007568069443</v>
       </c>
       <c r="N19" t="n">
-        <v>83.31087942545557</v>
+        <v>83.31087942545558</v>
       </c>
       <c r="O19" t="n">
-        <v>76.95108140598721</v>
+        <v>76.95108140598722</v>
       </c>
       <c r="P19" t="n">
-        <v>65.84494385292339</v>
+        <v>65.84494385292341</v>
       </c>
       <c r="Q19" t="n">
-        <v>45.58762611464805</v>
+        <v>45.58762611464806</v>
       </c>
       <c r="R19" t="n">
         <v>24.47903580100415</v>
       </c>
       <c r="S19" t="n">
-        <v>9.487729808031732</v>
+        <v>9.487729808031734</v>
       </c>
       <c r="T19" t="n">
-        <v>2.326151804786079</v>
+        <v>2.32615180478608</v>
       </c>
       <c r="U19" t="n">
         <v>0.02969555495471595</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.213687673191068</v>
+        <v>1.213687673191069</v>
       </c>
       <c r="H20" t="n">
-        <v>12.42967888306803</v>
+        <v>12.42967888306804</v>
       </c>
       <c r="I20" t="n">
         <v>46.79069402069872</v>
       </c>
       <c r="J20" t="n">
-        <v>103.0102241525005</v>
+        <v>103.0102241525006</v>
       </c>
       <c r="K20" t="n">
         <v>154.3856233586785</v>
@@ -32496,16 +32496,16 @@
         <v>131.0646147183121</v>
       </c>
       <c r="R20" t="n">
-        <v>76.23930830108853</v>
+        <v>76.23930830108854</v>
       </c>
       <c r="S20" t="n">
-        <v>27.6569078528415</v>
+        <v>27.65690785284151</v>
       </c>
       <c r="T20" t="n">
-        <v>5.312917789393905</v>
+        <v>5.312917789393906</v>
       </c>
       <c r="U20" t="n">
-        <v>0.09709501385528546</v>
+        <v>0.09709501385528548</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6493801545757689</v>
+        <v>0.649380154575769</v>
       </c>
       <c r="H21" t="n">
         <v>6.271645177087033</v>
@@ -32551,7 +32551,7 @@
         <v>22.35804479570082</v>
       </c>
       <c r="J21" t="n">
-        <v>61.35218381454667</v>
+        <v>61.35218381454668</v>
       </c>
       <c r="K21" t="n">
         <v>104.8606541711232</v>
@@ -32563,7 +32563,7 @@
         <v>164.5381207449218</v>
       </c>
       <c r="N21" t="n">
-        <v>168.8929552025812</v>
+        <v>168.8929552025813</v>
       </c>
       <c r="O21" t="n">
         <v>154.5040580932971</v>
@@ -32572,10 +32572,10 @@
         <v>124.0031279382449</v>
       </c>
       <c r="Q21" t="n">
-        <v>82.89280709988236</v>
+        <v>82.89280709988239</v>
       </c>
       <c r="R21" t="n">
-        <v>40.3185327551517</v>
+        <v>40.31853275515171</v>
       </c>
       <c r="S21" t="n">
         <v>12.06195155538763</v>
@@ -32584,7 +32584,7 @@
         <v>2.61745772831198</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04272237859051113</v>
+        <v>0.04272237859051114</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,46 +32621,46 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5444185075031251</v>
+        <v>0.5444185075031253</v>
       </c>
       <c r="H22" t="n">
-        <v>4.840375457618697</v>
+        <v>4.840375457618698</v>
       </c>
       <c r="I22" t="n">
-        <v>16.37214929836671</v>
+        <v>16.37214929836672</v>
       </c>
       <c r="J22" t="n">
         <v>38.49038848047095</v>
       </c>
       <c r="K22" t="n">
-        <v>63.25153205354489</v>
+        <v>63.2515320535449</v>
       </c>
       <c r="L22" t="n">
-        <v>80.94018428823736</v>
+        <v>80.94018428823738</v>
       </c>
       <c r="M22" t="n">
-        <v>85.34007568069441</v>
+        <v>85.34007568069443</v>
       </c>
       <c r="N22" t="n">
-        <v>83.31087942545557</v>
+        <v>83.31087942545558</v>
       </c>
       <c r="O22" t="n">
-        <v>76.95108140598721</v>
+        <v>76.95108140598722</v>
       </c>
       <c r="P22" t="n">
-        <v>65.84494385292339</v>
+        <v>65.84494385292341</v>
       </c>
       <c r="Q22" t="n">
-        <v>45.58762611464805</v>
+        <v>45.58762611464806</v>
       </c>
       <c r="R22" t="n">
         <v>24.47903580100415</v>
       </c>
       <c r="S22" t="n">
-        <v>9.487729808031732</v>
+        <v>9.487729808031734</v>
       </c>
       <c r="T22" t="n">
-        <v>2.326151804786079</v>
+        <v>2.32615180478608</v>
       </c>
       <c r="U22" t="n">
         <v>0.02969555495471595</v>
@@ -34713,7 +34713,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34780,13 +34780,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>46.78797658628819</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
@@ -34798,7 +34798,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,13 +35017,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>104.6525397736754</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
@@ -35254,16 +35254,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>161.1784674257276</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>60.60559248828882</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>231.4844522093428</v>
+        <v>228.5170346547477</v>
       </c>
       <c r="L12" t="n">
         <v>373.2840556651352</v>
@@ -35506,7 +35506,7 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P12" t="n">
-        <v>244.9184791209679</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35728,7 +35728,7 @@
         <v>60.60559248828882</v>
       </c>
       <c r="K15" t="n">
-        <v>14.92312141674905</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L15" t="n">
         <v>373.2840556651352</v>
@@ -35743,10 +35743,10 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P15" t="n">
-        <v>308.4914891638518</v>
+        <v>244.9184791209679</v>
       </c>
       <c r="Q15" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,10 +35883,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>91.06093479788802</v>
+        <v>91.06093479788805</v>
       </c>
       <c r="K17" t="n">
-        <v>258.4411848848627</v>
+        <v>258.4411848848628</v>
       </c>
       <c r="L17" t="n">
         <v>373.4238170675629</v>
@@ -35895,13 +35895,13 @@
         <v>432.2802359107711</v>
       </c>
       <c r="N17" t="n">
-        <v>424.4951865620587</v>
+        <v>424.4951865620588</v>
       </c>
       <c r="O17" t="n">
         <v>355.1946887874304</v>
       </c>
       <c r="P17" t="n">
-        <v>265.0955169306803</v>
+        <v>265.0955169306804</v>
       </c>
       <c r="Q17" t="n">
         <v>121.0739155037673</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>60.60559248828881</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>231.4844522093428</v>
@@ -35971,10 +35971,10 @@
         <v>373.2840556651352</v>
       </c>
       <c r="M18" t="n">
-        <v>488.1091505729033</v>
+        <v>488.1091505729034</v>
       </c>
       <c r="N18" t="n">
-        <v>453.320607419918</v>
+        <v>513.9261999082065</v>
       </c>
       <c r="O18" t="n">
         <v>405.7701329255822</v>
@@ -36044,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>40.98204022766203</v>
+        <v>40.98204022766205</v>
       </c>
       <c r="L19" t="n">
         <v>108.5302095485535</v>
@@ -36059,7 +36059,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P19" t="n">
-        <v>63.12350311781688</v>
+        <v>63.1235031178169</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>91.06093479788802</v>
+        <v>91.06093479788805</v>
       </c>
       <c r="K20" t="n">
-        <v>258.4411848848627</v>
+        <v>258.4411848848628</v>
       </c>
       <c r="L20" t="n">
         <v>373.4238170675629</v>
@@ -36132,13 +36132,13 @@
         <v>432.2802359107711</v>
       </c>
       <c r="N20" t="n">
-        <v>424.4951865620587</v>
+        <v>424.4951865620588</v>
       </c>
       <c r="O20" t="n">
         <v>355.1946887874304</v>
       </c>
       <c r="P20" t="n">
-        <v>265.0955169306803</v>
+        <v>265.0955169306804</v>
       </c>
       <c r="Q20" t="n">
         <v>121.0739155037673</v>
@@ -36199,19 +36199,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>60.60559248828882</v>
       </c>
       <c r="K21" t="n">
-        <v>228.5170346547476</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L21" t="n">
         <v>373.2840556651352</v>
       </c>
       <c r="M21" t="n">
-        <v>488.1091505729033</v>
+        <v>488.1091505729034</v>
       </c>
       <c r="N21" t="n">
-        <v>516.8936174628014</v>
+        <v>300.3322866702078</v>
       </c>
       <c r="O21" t="n">
         <v>405.7701329255822</v>
@@ -36220,7 +36220,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>40.98204022766203</v>
+        <v>40.98204022766205</v>
       </c>
       <c r="L22" t="n">
         <v>108.5302095485535</v>
@@ -36296,7 +36296,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P22" t="n">
-        <v>63.12350311781688</v>
+        <v>63.1235031178169</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36439,10 +36439,10 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>75.5287139050381</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L24" t="n">
-        <v>373.2840556651352</v>
+        <v>370.3166381105405</v>
       </c>
       <c r="M24" t="n">
         <v>488.1091505729033</v>
@@ -36457,7 +36457,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q24" t="n">
-        <v>152.9883207497099</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>60.60559248828881</v>
       </c>
       <c r="K27" t="n">
-        <v>167.9114421664588</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L27" t="n">
         <v>373.2840556651352</v>
@@ -36685,7 +36685,7 @@
         <v>488.1091505729033</v>
       </c>
       <c r="N27" t="n">
-        <v>516.8936174628014</v>
+        <v>453.3206074199175</v>
       </c>
       <c r="O27" t="n">
         <v>405.7701329255822</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>60.60559248828881</v>
       </c>
       <c r="K30" t="n">
-        <v>228.5170346547481</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L30" t="n">
         <v>373.2840556651352</v>
@@ -36925,7 +36925,7 @@
         <v>516.8936174628014</v>
       </c>
       <c r="O30" t="n">
-        <v>405.7701329255822</v>
+        <v>342.197122882698</v>
       </c>
       <c r="P30" t="n">
         <v>308.4914891638518</v>
@@ -37150,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>75.5287139050381</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L33" t="n">
         <v>373.2840556651352</v>
@@ -37165,10 +37165,10 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P33" t="n">
-        <v>308.4914891638518</v>
+        <v>305.5240716092564</v>
       </c>
       <c r="Q33" t="n">
-        <v>152.9883207497099</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>60.60559248828881</v>
       </c>
       <c r="K36" t="n">
         <v>231.4844522093428</v>
@@ -37396,16 +37396,16 @@
         <v>488.1091505729033</v>
       </c>
       <c r="N36" t="n">
-        <v>516.8936174628014</v>
+        <v>300.3322866702081</v>
       </c>
       <c r="O36" t="n">
         <v>405.7701329255822</v>
       </c>
       <c r="P36" t="n">
-        <v>305.5240716092569</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>152.9883207497099</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>60.60559248828881</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>231.4844522093428</v>
+        <v>228.5170346547481</v>
       </c>
       <c r="L39" t="n">
         <v>373.2840556651352</v>
@@ -37639,7 +37639,7 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P39" t="n">
-        <v>244.9184791209679</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37858,16 +37858,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>60.60559248828882</v>
       </c>
       <c r="K42" t="n">
-        <v>228.5170346547477</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L42" t="n">
         <v>373.2840556651352</v>
       </c>
       <c r="M42" t="n">
-        <v>488.1091505729034</v>
+        <v>271.5478197803097</v>
       </c>
       <c r="N42" t="n">
         <v>516.8936174628016</v>
@@ -37879,7 +37879,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,13 +38016,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>91.0609347978879</v>
+        <v>91.06093479788805</v>
       </c>
       <c r="K44" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L44" t="n">
-        <v>373.4238170675629</v>
+        <v>373.4238170675628</v>
       </c>
       <c r="M44" t="n">
         <v>432.2802359107711</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>60.60559248828882</v>
       </c>
       <c r="K45" t="n">
-        <v>75.52871390503788</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L45" t="n">
         <v>373.2840556651352</v>
@@ -38113,10 +38113,10 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P45" t="n">
-        <v>308.4914891638518</v>
+        <v>244.9184791209679</v>
       </c>
       <c r="Q45" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
